--- a/observations/orbit_plans/mtp081/nomad_mtp081_plan.xlsx
+++ b/observations/orbit_plans/mtp081/nomad_mtp081_plan.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp081\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A5FFC-EA49-427D-9935-7ABA6644B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="572">
   <si>
     <t>#orbitType</t>
   </si>
@@ -211,9 +230,6 @@
     <t>2024 JUN 10 08:40:35</t>
   </si>
   <si>
-    <t>uvisOnlyNightside</t>
-  </si>
-  <si>
     <t>2024 JUN 10 10:38:31</t>
   </si>
   <si>
@@ -541,9 +557,6 @@
     <t xml:space="preserve">&amp;LST=13.9hrs; &amp;Angle=26; </t>
   </si>
   <si>
-    <t>uvisNightLimb</t>
-  </si>
-  <si>
     <t>2024 JUN 15 08:32:54</t>
   </si>
   <si>
@@ -1042,9 +1055,6 @@
     <t xml:space="preserve">&amp;LST=12.1hrs; &amp;Angle=1; </t>
   </si>
   <si>
-    <t>uvisOnlyLimb</t>
-  </si>
-  <si>
     <t>2024 JUN 24 00:52:19</t>
   </si>
   <si>
@@ -1721,13 +1731,31 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;LST=9.8hrs; &amp;Angle=31; </t>
+  </si>
+  <si>
+    <t>UVIS Binning 3 IT 7000 Delay 0</t>
+  </si>
+  <si>
+    <t>UVIS Binning 3 IT 10000 Delay 0</t>
+  </si>
+  <si>
+    <t>UVIS Binning 3 IT 5000 Delay 0</t>
+  </si>
+  <si>
+    <t>UVIS Binning 3 IT 70 Delay 300</t>
+  </si>
+  <si>
+    <t>UVIS Unbinned IT 70 Delay 2700</t>
+  </si>
+  <si>
+    <t>UVIS Unbinned IT 16000 Delay 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,13 +1792,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1808,7 +1844,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1842,6 +1878,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1876,9 +1913,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2051,14 +2089,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2099,12 +2149,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -2113,7 +2160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2123,23 +2170,17 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
@@ -2148,12 +2189,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -2162,7 +2203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2173,7 +2214,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>569</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -2181,12 +2222,6 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
@@ -2194,9 +2229,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>566</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
@@ -2205,12 +2243,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
@@ -2219,7 +2257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2229,9 +2267,6 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
@@ -2239,10 +2274,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>570</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
@@ -2251,7 +2286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2262,7 +2297,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>570</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -2270,12 +2305,6 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
       <c r="L9" t="s">
         <v>32</v>
       </c>
@@ -2283,12 +2312,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
       </c>
       <c r="L10" t="s">
         <v>34</v>
@@ -2297,7 +2323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2307,21 +2333,12 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
       <c r="L11" t="s">
         <v>37</v>
       </c>
@@ -2329,12 +2346,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
       </c>
       <c r="L12" t="s">
         <v>39</v>
@@ -2343,12 +2357,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
       </c>
       <c r="L13" t="s">
         <v>40</v>
@@ -2357,7 +2368,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2368,7 +2379,7 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>569</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -2377,13 +2388,13 @@
         <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>569</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
@@ -2392,12 +2403,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
@@ -2406,7 +2414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2416,9 +2424,6 @@
       <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
@@ -2426,10 +2431,7 @@
         <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
+        <v>570</v>
       </c>
       <c r="L16" t="s">
         <v>50</v>
@@ -2438,7 +2440,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>570</v>
       </c>
       <c r="E17" t="s">
         <v>52</v>
@@ -2458,10 +2460,7 @@
         <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
+        <v>569</v>
       </c>
       <c r="L17" t="s">
         <v>53</v>
@@ -2470,12 +2469,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
       </c>
       <c r="L18" t="s">
         <v>55</v>
@@ -2484,12 +2480,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
       </c>
       <c r="L19" t="s">
         <v>57</v>
@@ -2498,7 +2491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2508,21 +2501,12 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
       <c r="L20" t="s">
         <v>59</v>
       </c>
@@ -2530,12 +2514,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="L21" t="s">
         <v>60</v>
@@ -2544,7 +2528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2555,7 +2539,7 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>569</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -2564,10 +2548,7 @@
         <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
+        <v>569</v>
       </c>
       <c r="L22" t="s">
         <v>63</v>
@@ -2576,12 +2557,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
       </c>
       <c r="L23" t="s">
         <v>64</v>
@@ -2590,24 +2568,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
       <c r="K24" t="s">
+        <v>571</v>
+      </c>
+      <c r="L24" t="s">
         <v>65</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>66</v>
       </c>
-      <c r="M24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2617,23 +2592,17 @@
       <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
       <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" t="s">
         <v>68</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2643,9 +2612,6 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
       <c r="E26" t="s">
         <v>27</v>
       </c>
@@ -2653,44 +2619,38 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>8</v>
+        <v>569</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
       <c r="L27" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" t="s">
         <v>71</v>
       </c>
-      <c r="M27" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>569</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
@@ -2698,34 +2658,25 @@
       <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
       <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" t="s">
         <v>74</v>
       </c>
-      <c r="M28" t="s">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" t="s">
-        <v>76</v>
-      </c>
       <c r="M29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2735,29 +2686,20 @@
       <c r="C30" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
       <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" t="s">
         <v>77</v>
       </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>78</v>
       </c>
-      <c r="M30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2767,43 +2709,31 @@
       <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
       <c r="E31" t="s">
         <v>27</v>
       </c>
       <c r="F31" t="s">
         <v>27</v>
       </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
       <c r="L31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" t="s">
         <v>80</v>
       </c>
-      <c r="M31" t="s">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>82</v>
       </c>
-      <c r="M32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2813,29 +2743,23 @@
       <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>30</v>
       </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
       <c r="I33" t="s">
-        <v>8</v>
+        <v>567</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2843,16 +2767,16 @@
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>8</v>
+        <v>568</v>
       </c>
       <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" t="s">
         <v>85</v>
       </c>
-      <c r="M34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2862,29 +2786,20 @@
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" t="s">
         <v>87</v>
       </c>
-      <c r="M35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2894,43 +2809,31 @@
       <c r="C36" t="s">
         <v>42</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="F36" t="s">
         <v>41</v>
       </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
       <c r="L36" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" t="s">
         <v>89</v>
       </c>
-      <c r="M36" t="s">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" t="s">
-        <v>91</v>
-      </c>
       <c r="M37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2940,54 +2843,39 @@
       <c r="C38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
       <c r="E38" t="s">
         <v>48</v>
       </c>
       <c r="F38" t="s">
         <v>48</v>
       </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
       <c r="L38" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
         <v>92</v>
       </c>
-      <c r="M38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>93</v>
       </c>
-      <c r="M39" t="s">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
       <c r="C40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2995,56 +2883,47 @@
       <c r="F40" t="s">
         <v>16</v>
       </c>
-      <c r="G40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
       <c r="L40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="L42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
         <v>42</v>
@@ -3052,20 +2931,14 @@
       <c r="F43" t="s">
         <v>42</v>
       </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" t="s">
+        <v>99</v>
+      </c>
+      <c r="M43" t="s">
         <v>100</v>
       </c>
-      <c r="M43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3075,46 +2948,37 @@
       <c r="C44" t="s">
         <v>62</v>
       </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
       <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" t="s">
         <v>102</v>
       </c>
-      <c r="F44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>103</v>
       </c>
-      <c r="M44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
+        <v>566</v>
+      </c>
+      <c r="L45" t="s">
         <v>105</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" t="s">
-        <v>106</v>
       </c>
       <c r="M45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3124,43 +2988,31 @@
       <c r="C46" t="s">
         <v>41</v>
       </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
       <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s">
         <v>107</v>
       </c>
-      <c r="F46" t="s">
-        <v>107</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>108</v>
       </c>
-      <c r="M46" t="s">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" t="s">
-        <v>110</v>
-      </c>
       <c r="M47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3170,75 +3022,54 @@
       <c r="C48" t="s">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
       <c r="E48" t="s">
         <v>30</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
       </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" t="s">
+        <v>110</v>
+      </c>
+      <c r="M48" t="s">
         <v>111</v>
       </c>
-      <c r="M48" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49">
-        <v>14</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>113</v>
       </c>
-      <c r="M49" t="s">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
         <v>115</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
         <v>115</v>
       </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="L50" t="s">
         <v>116</v>
       </c>
-      <c r="F50" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" t="s">
-        <v>117</v>
-      </c>
       <c r="M50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3248,54 +3079,39 @@
       <c r="C51" t="s">
         <v>36</v>
       </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
       <c r="E51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" t="s">
         <v>118</v>
       </c>
-      <c r="F51" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>119</v>
       </c>
-      <c r="M51" t="s">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>121</v>
       </c>
-      <c r="M52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
         <v>62</v>
@@ -3303,34 +3119,25 @@
       <c r="F53" t="s">
         <v>62</v>
       </c>
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" t="s">
-        <v>8</v>
-      </c>
       <c r="L53" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
         <v>123</v>
       </c>
-      <c r="M53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" t="s">
-        <v>124</v>
-      </c>
       <c r="M54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3340,29 +3147,20 @@
       <c r="C55" t="s">
         <v>49</v>
       </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
       <c r="E55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="L55" t="s">
         <v>125</v>
       </c>
-      <c r="F55" t="s">
-        <v>125</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" t="s">
-        <v>126</v>
-      </c>
       <c r="M55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3372,92 +3170,68 @@
       <c r="C56" t="s">
         <v>62</v>
       </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
       <c r="E56" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
-      <c r="G56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" t="s">
-        <v>8</v>
-      </c>
       <c r="L56" t="s">
+        <v>126</v>
+      </c>
+      <c r="M56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="L57" t="s">
         <v>127</v>
-      </c>
-      <c r="M56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" t="s">
-        <v>128</v>
       </c>
       <c r="M57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="L58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>105</v>
-      </c>
-      <c r="I59" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3467,40 +3241,28 @@
       <c r="C60" t="s">
         <v>27</v>
       </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
       <c r="E60" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
       </c>
-      <c r="G60" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" t="s">
+        <v>130</v>
+      </c>
+      <c r="M60" t="s">
         <v>131</v>
       </c>
-      <c r="M60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
@@ -3508,45 +3270,33 @@
       <c r="F61" t="s">
         <v>28</v>
       </c>
-      <c r="G61" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" t="s">
-        <v>8</v>
-      </c>
       <c r="L61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
-      <c r="I62" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" t="s">
+        <v>133</v>
+      </c>
+      <c r="M62" t="s">
         <v>134</v>
       </c>
-      <c r="M62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -3554,59 +3304,44 @@
       <c r="F63" t="s">
         <v>21</v>
       </c>
-      <c r="G63" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" t="s">
-        <v>8</v>
-      </c>
       <c r="L63" t="s">
+        <v>135</v>
+      </c>
+      <c r="M63" t="s">
         <v>136</v>
       </c>
-      <c r="M63" t="s">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>8</v>
-      </c>
-      <c r="L64" t="s">
-        <v>138</v>
       </c>
       <c r="M64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
-      <c r="I65" t="s">
-        <v>8</v>
-      </c>
       <c r="L65" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" t="s">
         <v>139</v>
       </c>
-      <c r="M65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -3614,45 +3349,33 @@
       <c r="F66" t="s">
         <v>15</v>
       </c>
-      <c r="G66" t="s">
-        <v>6</v>
-      </c>
-      <c r="I66" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" t="s">
+        <v>140</v>
+      </c>
+      <c r="M66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
         <v>141</v>
       </c>
-      <c r="M66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>142</v>
       </c>
-      <c r="M67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
       <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
         <v>28</v>
@@ -3660,20 +3383,14 @@
       <c r="F68" t="s">
         <v>28</v>
       </c>
-      <c r="G68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" t="s">
-        <v>8</v>
-      </c>
       <c r="L68" t="s">
+        <v>143</v>
+      </c>
+      <c r="M68" t="s">
         <v>144</v>
       </c>
-      <c r="M68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3683,76 +3400,61 @@
       <c r="C69" t="s">
         <v>22</v>
       </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
       <c r="E69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="L69" t="s">
+        <v>145</v>
+      </c>
+      <c r="M69" t="s">
         <v>146</v>
       </c>
-      <c r="M69" t="s">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="L70" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>8</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="L71" t="s">
         <v>148</v>
       </c>
-      <c r="M70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71">
-        <v>14</v>
-      </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="L72" t="s">
         <v>149</v>
       </c>
-      <c r="M71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72">
-        <v>14</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>150</v>
       </c>
-      <c r="M72" t="s">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>152</v>
-      </c>
       <c r="C73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
         <v>28</v>
@@ -3760,34 +3462,25 @@
       <c r="F73" t="s">
         <v>28</v>
       </c>
-      <c r="G73" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" t="s">
-        <v>8</v>
-      </c>
       <c r="L73" t="s">
+        <v>152</v>
+      </c>
+      <c r="M73" t="s">
         <v>153</v>
       </c>
-      <c r="M73" t="s">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="L74" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>8</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>155</v>
       </c>
-      <c r="M74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3797,46 +3490,34 @@
       <c r="C75" t="s">
         <v>28</v>
       </c>
-      <c r="D75" t="s">
-        <v>3</v>
-      </c>
       <c r="E75" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" t="s">
+        <v>156</v>
+      </c>
+      <c r="L75" t="s">
         <v>157</v>
       </c>
-      <c r="F75" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>158</v>
       </c>
-      <c r="M75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="H76" t="s">
+        <v>159</v>
+      </c>
+      <c r="L76" t="s">
         <v>160</v>
       </c>
-      <c r="I76" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>161</v>
       </c>
-      <c r="M76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3846,54 +3527,39 @@
       <c r="C77" t="s">
         <v>42</v>
       </c>
-      <c r="D77" t="s">
-        <v>3</v>
-      </c>
       <c r="E77" t="s">
         <v>61</v>
       </c>
       <c r="F77" t="s">
         <v>61</v>
       </c>
-      <c r="G77" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" t="s">
-        <v>8</v>
-      </c>
       <c r="L77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M77" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
-      <c r="I78" t="s">
-        <v>8</v>
-      </c>
       <c r="L78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E79" t="s">
         <v>61</v>
@@ -3901,45 +3567,36 @@
       <c r="F79" t="s">
         <v>61</v>
       </c>
-      <c r="G79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" t="s">
-        <v>8</v>
-      </c>
       <c r="L79" t="s">
+        <v>164</v>
+      </c>
+      <c r="M79" t="s">
         <v>165</v>
       </c>
-      <c r="M79" t="s">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="L80" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80">
-        <v>14</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>167</v>
       </c>
-      <c r="M80" t="s">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="L81" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" t="s">
-        <v>169</v>
       </c>
       <c r="M81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3949,60 +3606,45 @@
       <c r="C82" t="s">
         <v>16</v>
       </c>
-      <c r="D82" t="s">
-        <v>3</v>
-      </c>
       <c r="E82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>169</v>
+      </c>
+      <c r="L82" t="s">
         <v>170</v>
       </c>
-      <c r="F82" t="s">
-        <v>170</v>
-      </c>
-      <c r="G82" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" t="s">
-        <v>8</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>171</v>
       </c>
-      <c r="M82" t="s">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="L83" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>173</v>
       </c>
-      <c r="M83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>47</v>
       </c>
-      <c r="I84" t="s">
-        <v>8</v>
-      </c>
       <c r="K84" t="s">
+        <v>571</v>
+      </c>
+      <c r="L84" t="s">
+        <v>174</v>
+      </c>
+      <c r="M84" t="s">
         <v>175</v>
       </c>
-      <c r="L84" t="s">
-        <v>176</v>
-      </c>
-      <c r="M84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4012,91 +3654,70 @@
       <c r="C85" t="s">
         <v>16</v>
       </c>
-      <c r="D85" t="s">
-        <v>3</v>
-      </c>
       <c r="E85" t="s">
         <v>58</v>
       </c>
       <c r="F85" t="s">
         <v>58</v>
       </c>
-      <c r="G85" t="s">
-        <v>6</v>
-      </c>
-      <c r="I85" t="s">
-        <v>8</v>
-      </c>
       <c r="L85" t="s">
+        <v>176</v>
+      </c>
+      <c r="M85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+      <c r="L86" t="s">
         <v>178</v>
       </c>
-      <c r="M85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="M86" t="s">
         <v>179</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>180</v>
+      </c>
+      <c r="M87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
+        <v>182</v>
+      </c>
+      <c r="M88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="L89" t="s">
+        <v>184</v>
+      </c>
+      <c r="M89" t="s">
         <v>179</v>
       </c>
-      <c r="D86" t="s">
-        <v>3</v>
-      </c>
-      <c r="I86" t="s">
-        <v>8</v>
-      </c>
-      <c r="L86" t="s">
-        <v>180</v>
-      </c>
-      <c r="M86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87">
-        <v>14</v>
-      </c>
-      <c r="L87" t="s">
-        <v>182</v>
-      </c>
-      <c r="M87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>8</v>
-      </c>
-      <c r="L88" t="s">
-        <v>184</v>
-      </c>
-      <c r="M88" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" t="s">
-        <v>186</v>
-      </c>
-      <c r="M89" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4106,92 +3727,68 @@
       <c r="C90" t="s">
         <v>21</v>
       </c>
-      <c r="D90" t="s">
-        <v>3</v>
-      </c>
       <c r="E90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" t="s">
+        <v>185</v>
+      </c>
+      <c r="L90" t="s">
+        <v>186</v>
+      </c>
+      <c r="M90" t="s">
         <v>187</v>
       </c>
-      <c r="F90" t="s">
-        <v>187</v>
-      </c>
-      <c r="G90" t="s">
-        <v>6</v>
-      </c>
-      <c r="I90" t="s">
-        <v>8</v>
-      </c>
-      <c r="L90" t="s">
-        <v>188</v>
-      </c>
-      <c r="M90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>47</v>
       </c>
-      <c r="I91" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" t="s">
+        <v>571</v>
+      </c>
+      <c r="L91" t="s">
+        <v>188</v>
+      </c>
+      <c r="M91" t="s">
         <v>175</v>
       </c>
-      <c r="L91" t="s">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>189</v>
+      </c>
+      <c r="M92" t="s">
         <v>190</v>
       </c>
-      <c r="M91" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>8</v>
-      </c>
-      <c r="L92" t="s">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" t="s">
+        <v>114</v>
+      </c>
+      <c r="L93" t="s">
         <v>191</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M93" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" t="s">
-        <v>115</v>
-      </c>
-      <c r="G93" t="s">
-        <v>6</v>
-      </c>
-      <c r="I93" t="s">
-        <v>8</v>
-      </c>
-      <c r="L93" t="s">
-        <v>193</v>
-      </c>
-      <c r="M93" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4201,43 +3798,31 @@
       <c r="C94" t="s">
         <v>16</v>
       </c>
-      <c r="D94" t="s">
-        <v>3</v>
-      </c>
       <c r="E94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F94" t="s">
-        <v>73</v>
-      </c>
-      <c r="G94" t="s">
-        <v>6</v>
-      </c>
-      <c r="I94" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="L94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
-      <c r="I95" t="s">
-        <v>8</v>
-      </c>
       <c r="L95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M95" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4247,60 +3832,45 @@
       <c r="C96" t="s">
         <v>62</v>
       </c>
-      <c r="D96" t="s">
-        <v>3</v>
-      </c>
       <c r="E96" t="s">
         <v>41</v>
       </c>
       <c r="F96" t="s">
         <v>41</v>
       </c>
-      <c r="G96" t="s">
-        <v>6</v>
-      </c>
       <c r="H96" t="s">
         <v>17</v>
       </c>
-      <c r="I96" t="s">
-        <v>8</v>
-      </c>
       <c r="L96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M96" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
       </c>
-      <c r="I97" t="s">
-        <v>8</v>
-      </c>
       <c r="L97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
-      <c r="I98" t="s">
-        <v>8</v>
-      </c>
       <c r="L98" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4310,129 +3880,96 @@
       <c r="F99" t="s">
         <v>42</v>
       </c>
-      <c r="G99" t="s">
-        <v>6</v>
-      </c>
-      <c r="I99" t="s">
-        <v>8</v>
-      </c>
       <c r="L99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M99" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>47</v>
       </c>
-      <c r="I100" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" t="s">
+        <v>571</v>
+      </c>
+      <c r="L100" t="s">
+        <v>201</v>
+      </c>
+      <c r="M100" t="s">
         <v>175</v>
       </c>
-      <c r="L100" t="s">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>202</v>
+      </c>
+      <c r="M101" t="s">
         <v>203</v>
       </c>
-      <c r="M100" t="s">
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101">
-        <v>14</v>
-      </c>
-      <c r="I101" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" t="s">
         <v>204</v>
       </c>
-      <c r="M101" t="s">
+      <c r="F102" t="s">
+        <v>204</v>
+      </c>
+      <c r="L102" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" t="s">
-        <v>179</v>
-      </c>
-      <c r="D102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" t="s">
-        <v>206</v>
-      </c>
-      <c r="F102" t="s">
-        <v>206</v>
-      </c>
-      <c r="G102" t="s">
-        <v>6</v>
-      </c>
-      <c r="I102" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" t="s">
-        <v>207</v>
       </c>
       <c r="M102" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
-      </c>
-      <c r="D103" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F103" t="s">
-        <v>143</v>
-      </c>
-      <c r="G103" t="s">
-        <v>6</v>
-      </c>
-      <c r="I103" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="L103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14</v>
       </c>
-      <c r="I104" t="s">
-        <v>8</v>
-      </c>
       <c r="L104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M104" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4442,57 +3979,42 @@
       <c r="C105" t="s">
         <v>21</v>
       </c>
-      <c r="D105" t="s">
-        <v>3</v>
-      </c>
       <c r="E105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>95</v>
-      </c>
-      <c r="G105" t="s">
-        <v>6</v>
-      </c>
-      <c r="I105" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="L105" t="s">
+        <v>210</v>
+      </c>
+      <c r="M105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>14</v>
+      </c>
+      <c r="L106" t="s">
         <v>212</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="L107" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106">
-        <v>14</v>
-      </c>
-      <c r="I106" t="s">
-        <v>8</v>
-      </c>
-      <c r="L106" t="s">
+      <c r="M107" t="s">
         <v>214</v>
       </c>
-      <c r="M106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107">
-        <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
-      </c>
-      <c r="L107" t="s">
-        <v>215</v>
-      </c>
-      <c r="M107" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4502,57 +4024,42 @@
       <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="D108" t="s">
-        <v>3</v>
-      </c>
-      <c r="I108" t="s">
-        <v>8</v>
-      </c>
       <c r="L108" t="s">
+        <v>215</v>
+      </c>
+      <c r="M108" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="L109" t="s">
         <v>217</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M109" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
-      <c r="A109">
-        <v>14</v>
-      </c>
-      <c r="I109" t="s">
-        <v>8</v>
-      </c>
-      <c r="L109" t="s">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" t="s">
+        <v>76</v>
+      </c>
+      <c r="L110" t="s">
         <v>219</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" t="s">
-        <v>77</v>
-      </c>
-      <c r="D110" t="s">
-        <v>3</v>
-      </c>
-      <c r="I110" t="s">
-        <v>8</v>
-      </c>
-      <c r="L110" t="s">
-        <v>221</v>
-      </c>
-      <c r="M110" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4562,107 +4069,89 @@
       <c r="F111" t="s">
         <v>42</v>
       </c>
-      <c r="G111" t="s">
-        <v>6</v>
-      </c>
       <c r="H111" t="s">
+        <v>221</v>
+      </c>
+      <c r="L111" t="s">
+        <v>222</v>
+      </c>
+      <c r="M111" t="s">
         <v>223</v>
       </c>
-      <c r="I111" t="s">
-        <v>8</v>
-      </c>
-      <c r="L111" t="s">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="L112" t="s">
         <v>224</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="L113" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>8</v>
-      </c>
-      <c r="L112" t="s">
+      <c r="M113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" t="s">
+        <v>206</v>
+      </c>
+      <c r="L114" t="s">
         <v>226</v>
       </c>
-      <c r="M112" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s">
-        <v>8</v>
-      </c>
-      <c r="L113" t="s">
+      <c r="M114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="L115" t="s">
         <v>227</v>
       </c>
-      <c r="M113" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
-        <v>208</v>
-      </c>
-      <c r="F114" t="s">
-        <v>208</v>
-      </c>
-      <c r="G114" t="s">
-        <v>6</v>
-      </c>
-      <c r="I114" t="s">
-        <v>8</v>
-      </c>
-      <c r="L114" t="s">
+      <c r="M115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="L116" t="s">
         <v>228</v>
       </c>
-      <c r="M114" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115">
-        <v>14</v>
-      </c>
-      <c r="L115" t="s">
+      <c r="M116" t="s">
         <v>229</v>
       </c>
-      <c r="M115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116">
-        <v>14</v>
-      </c>
-      <c r="L116" t="s">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
         <v>230</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M117" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117">
-        <v>14</v>
-      </c>
-      <c r="L117" t="s">
-        <v>232</v>
-      </c>
-      <c r="M117" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4672,20 +4161,14 @@
       <c r="F118" t="s">
         <v>30</v>
       </c>
-      <c r="G118" t="s">
-        <v>6</v>
-      </c>
-      <c r="I118" t="s">
-        <v>8</v>
-      </c>
       <c r="L118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M118" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4695,34 +4178,25 @@
       <c r="C119" t="s">
         <v>58</v>
       </c>
-      <c r="D119" t="s">
-        <v>3</v>
-      </c>
-      <c r="I119" t="s">
-        <v>8</v>
-      </c>
       <c r="L119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M119" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
       </c>
-      <c r="I120" t="s">
-        <v>8</v>
-      </c>
       <c r="L120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M120" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4732,97 +4206,73 @@
       <c r="C121" t="s">
         <v>51</v>
       </c>
-      <c r="D121" t="s">
-        <v>3</v>
-      </c>
       <c r="H121" t="s">
         <v>17</v>
       </c>
-      <c r="I121" t="s">
-        <v>8</v>
-      </c>
       <c r="L121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
-      <c r="I122" t="s">
-        <v>8</v>
-      </c>
       <c r="L122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M122" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" t="s">
-        <v>3</v>
-      </c>
-      <c r="I123" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="L123" t="s">
+        <v>238</v>
+      </c>
+      <c r="M123" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
         <v>240</v>
       </c>
-      <c r="M123" t="s">
+      <c r="F124" t="s">
+        <v>240</v>
+      </c>
+      <c r="L124" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="M124" t="s">
         <v>242</v>
       </c>
-      <c r="F124" t="s">
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="L125" t="s">
+        <v>243</v>
+      </c>
+      <c r="M125" t="s">
         <v>242</v>
       </c>
-      <c r="G124" t="s">
-        <v>6</v>
-      </c>
-      <c r="I124" t="s">
-        <v>8</v>
-      </c>
-      <c r="L124" t="s">
-        <v>243</v>
-      </c>
-      <c r="M124" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125">
-        <v>14</v>
-      </c>
-      <c r="I125" t="s">
-        <v>8</v>
-      </c>
-      <c r="L125" t="s">
-        <v>245</v>
-      </c>
-      <c r="M125" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4832,94 +4282,70 @@
       <c r="F126" t="s">
         <v>16</v>
       </c>
-      <c r="G126" t="s">
-        <v>6</v>
-      </c>
-      <c r="I126" t="s">
-        <v>8</v>
-      </c>
       <c r="L126" t="s">
+        <v>244</v>
+      </c>
+      <c r="M126" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="L127" t="s">
         <v>246</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M127" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="A127">
-        <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>8</v>
-      </c>
-      <c r="L127" t="s">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" t="s">
+        <v>117</v>
+      </c>
+      <c r="L128" t="s">
         <v>248</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M128" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="E128" t="s">
-        <v>118</v>
-      </c>
-      <c r="F128" t="s">
-        <v>118</v>
-      </c>
-      <c r="G128" t="s">
-        <v>6</v>
-      </c>
-      <c r="I128" t="s">
-        <v>8</v>
-      </c>
-      <c r="L128" t="s">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>14</v>
+      </c>
+      <c r="L129" t="s">
         <v>250</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>206</v>
+      </c>
+      <c r="F130" t="s">
+        <v>206</v>
+      </c>
+      <c r="L130" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>8</v>
-      </c>
-      <c r="L129" t="s">
-        <v>252</v>
-      </c>
-      <c r="M129" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
-        <v>208</v>
-      </c>
-      <c r="F130" t="s">
-        <v>208</v>
-      </c>
-      <c r="G130" t="s">
-        <v>6</v>
-      </c>
-      <c r="I130" t="s">
-        <v>8</v>
-      </c>
-      <c r="L130" t="s">
-        <v>253</v>
-      </c>
       <c r="M130" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4929,34 +4355,25 @@
       <c r="C131" t="s">
         <v>42</v>
       </c>
-      <c r="D131" t="s">
-        <v>3</v>
-      </c>
-      <c r="I131" t="s">
-        <v>8</v>
-      </c>
       <c r="L131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M131" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
-      <c r="I132" t="s">
-        <v>8</v>
-      </c>
       <c r="L132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M132" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4966,111 +4383,84 @@
       <c r="C133" t="s">
         <v>30</v>
       </c>
-      <c r="D133" t="s">
-        <v>3</v>
-      </c>
-      <c r="I133" t="s">
-        <v>8</v>
-      </c>
       <c r="L133" t="s">
+        <v>254</v>
+      </c>
+      <c r="M133" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
         <v>256</v>
-      </c>
-      <c r="M133" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134">
-        <v>14</v>
-      </c>
-      <c r="I134" t="s">
-        <v>8</v>
-      </c>
-      <c r="L134" t="s">
-        <v>258</v>
       </c>
       <c r="M134" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>116</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3</v>
-      </c>
-      <c r="I135" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="L135" t="s">
+        <v>257</v>
+      </c>
+      <c r="M135" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="L136" t="s">
         <v>259</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M136" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="L137" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136">
-        <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>8</v>
-      </c>
-      <c r="L136" t="s">
-        <v>261</v>
-      </c>
-      <c r="M136" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137">
-        <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>8</v>
-      </c>
-      <c r="L137" t="s">
-        <v>262</v>
       </c>
       <c r="M137" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C138" t="s">
-        <v>107</v>
-      </c>
-      <c r="D138" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="H138" t="s">
         <v>17</v>
       </c>
-      <c r="I138" t="s">
-        <v>8</v>
-      </c>
       <c r="L138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M138" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5080,34 +4470,25 @@
       <c r="F139" t="s">
         <v>62</v>
       </c>
-      <c r="G139" t="s">
-        <v>6</v>
-      </c>
-      <c r="I139" t="s">
-        <v>8</v>
-      </c>
       <c r="L139" t="s">
+        <v>263</v>
+      </c>
+      <c r="M139" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>14</v>
+      </c>
+      <c r="L140" t="s">
         <v>265</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M140" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
-      <c r="A140">
-        <v>14</v>
-      </c>
-      <c r="I140" t="s">
-        <v>8</v>
-      </c>
-      <c r="L140" t="s">
-        <v>267</v>
-      </c>
-      <c r="M140" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5117,216 +4498,168 @@
       <c r="F141" t="s">
         <v>41</v>
       </c>
-      <c r="G141" t="s">
-        <v>6</v>
-      </c>
-      <c r="I141" t="s">
-        <v>8</v>
-      </c>
       <c r="L141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M141" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14</v>
       </c>
-      <c r="I142" t="s">
-        <v>8</v>
-      </c>
       <c r="L142" t="s">
+        <v>268</v>
+      </c>
+      <c r="M142" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>269</v>
+      </c>
+      <c r="F143" t="s">
+        <v>269</v>
+      </c>
+      <c r="L143" t="s">
         <v>270</v>
       </c>
-      <c r="M142" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="M143" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>76</v>
+      </c>
+      <c r="C144" t="s">
+        <v>76</v>
+      </c>
+      <c r="L144" t="s">
         <v>271</v>
       </c>
-      <c r="F143" t="s">
-        <v>271</v>
-      </c>
-      <c r="G143" t="s">
-        <v>6</v>
-      </c>
-      <c r="I143" t="s">
-        <v>8</v>
-      </c>
-      <c r="L143" t="s">
+      <c r="M144" t="s">
         <v>272</v>
       </c>
-      <c r="M143" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144" t="s">
-        <v>77</v>
-      </c>
-      <c r="C144" t="s">
-        <v>77</v>
-      </c>
-      <c r="D144" t="s">
-        <v>3</v>
-      </c>
-      <c r="I144" t="s">
-        <v>8</v>
-      </c>
-      <c r="L144" t="s">
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>14</v>
+      </c>
+      <c r="L145" t="s">
         <v>273</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M145" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
-      <c r="A145">
-        <v>14</v>
-      </c>
-      <c r="L145" t="s">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>14</v>
+      </c>
+      <c r="L146" t="s">
         <v>275</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146">
-        <v>14</v>
-      </c>
-      <c r="L146" t="s">
+      <c r="C147" t="s">
+        <v>276</v>
+      </c>
+      <c r="L147" t="s">
         <v>277</v>
       </c>
-      <c r="M146" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="M147" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="L148" t="s">
         <v>278</v>
       </c>
-      <c r="C147" t="s">
-        <v>278</v>
-      </c>
-      <c r="D147" t="s">
-        <v>3</v>
-      </c>
-      <c r="I147" t="s">
-        <v>8</v>
-      </c>
-      <c r="L147" t="s">
-        <v>279</v>
-      </c>
-      <c r="M147" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
-      <c r="A148">
-        <v>14</v>
-      </c>
-      <c r="I148" t="s">
-        <v>8</v>
-      </c>
-      <c r="L148" t="s">
-        <v>280</v>
-      </c>
       <c r="M148" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
       </c>
-      <c r="I149" t="s">
-        <v>8</v>
-      </c>
       <c r="L149" t="s">
+        <v>279</v>
+      </c>
+      <c r="M149" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>114</v>
+      </c>
+      <c r="C150" t="s">
+        <v>114</v>
+      </c>
+      <c r="L150" t="s">
+        <v>280</v>
+      </c>
+      <c r="M150" t="s">
         <v>281</v>
       </c>
-      <c r="M149" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150" t="s">
-        <v>115</v>
-      </c>
-      <c r="C150" t="s">
-        <v>115</v>
-      </c>
-      <c r="D150" t="s">
-        <v>3</v>
-      </c>
-      <c r="I150" t="s">
-        <v>8</v>
-      </c>
-      <c r="L150" t="s">
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>240</v>
+      </c>
+      <c r="F151" t="s">
+        <v>240</v>
+      </c>
+      <c r="L151" t="s">
         <v>282</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M151" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="E151" t="s">
-        <v>242</v>
-      </c>
-      <c r="F151" t="s">
-        <v>242</v>
-      </c>
-      <c r="G151" t="s">
-        <v>6</v>
-      </c>
-      <c r="I151" t="s">
-        <v>8</v>
-      </c>
-      <c r="L151" t="s">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>14</v>
+      </c>
+      <c r="L152" t="s">
         <v>284</v>
       </c>
-      <c r="M151" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152">
-        <v>14</v>
-      </c>
-      <c r="I152" t="s">
-        <v>8</v>
-      </c>
-      <c r="L152" t="s">
-        <v>286</v>
-      </c>
       <c r="M152" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5336,97 +4669,73 @@
       <c r="F153" t="s">
         <v>28</v>
       </c>
-      <c r="G153" t="s">
-        <v>6</v>
-      </c>
-      <c r="I153" t="s">
-        <v>8</v>
-      </c>
       <c r="L153" t="s">
+        <v>285</v>
+      </c>
+      <c r="M153" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>14</v>
+      </c>
+      <c r="L154" t="s">
+        <v>286</v>
+      </c>
+      <c r="M154" t="s">
         <v>287</v>
       </c>
-      <c r="M153" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154">
-        <v>14</v>
-      </c>
-      <c r="I154" t="s">
-        <v>8</v>
-      </c>
-      <c r="L154" t="s">
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>117</v>
+      </c>
+      <c r="F155" t="s">
+        <v>117</v>
+      </c>
+      <c r="L155" t="s">
         <v>288</v>
       </c>
-      <c r="M154" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="E155" t="s">
-        <v>118</v>
-      </c>
-      <c r="F155" t="s">
-        <v>118</v>
-      </c>
-      <c r="G155" t="s">
-        <v>6</v>
-      </c>
-      <c r="I155" t="s">
-        <v>8</v>
-      </c>
-      <c r="L155" t="s">
-        <v>290</v>
-      </c>
       <c r="M155" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>17</v>
       </c>
-      <c r="I156" t="s">
-        <v>8</v>
-      </c>
       <c r="L156" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M156" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F157" t="s">
-        <v>99</v>
-      </c>
-      <c r="G157" t="s">
-        <v>6</v>
-      </c>
-      <c r="I157" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="L157" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M157" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5436,34 +4745,25 @@
       <c r="C158" t="s">
         <v>36</v>
       </c>
-      <c r="D158" t="s">
-        <v>3</v>
-      </c>
-      <c r="I158" t="s">
-        <v>8</v>
-      </c>
       <c r="L158" t="s">
+        <v>291</v>
+      </c>
+      <c r="M158" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>14</v>
+      </c>
+      <c r="L159" t="s">
         <v>293</v>
       </c>
-      <c r="M158" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159">
-        <v>14</v>
-      </c>
-      <c r="I159" t="s">
-        <v>8</v>
-      </c>
-      <c r="L159" t="s">
-        <v>295</v>
-      </c>
       <c r="M159" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5473,34 +4773,25 @@
       <c r="C160" t="s">
         <v>36</v>
       </c>
-      <c r="D160" t="s">
-        <v>3</v>
-      </c>
-      <c r="I160" t="s">
-        <v>8</v>
-      </c>
       <c r="L160" t="s">
+        <v>294</v>
+      </c>
+      <c r="M160" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>14</v>
+      </c>
+      <c r="L161" t="s">
         <v>296</v>
       </c>
-      <c r="M160" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161">
-        <v>14</v>
-      </c>
-      <c r="I161" t="s">
-        <v>8</v>
-      </c>
-      <c r="L161" t="s">
-        <v>298</v>
-      </c>
       <c r="M161" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5510,94 +4801,70 @@
       <c r="C162" t="s">
         <v>21</v>
       </c>
-      <c r="D162" t="s">
-        <v>3</v>
-      </c>
-      <c r="I162" t="s">
-        <v>8</v>
-      </c>
       <c r="L162" t="s">
+        <v>297</v>
+      </c>
+      <c r="M162" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>14</v>
+      </c>
+      <c r="L163" t="s">
+        <v>298</v>
+      </c>
+      <c r="M163" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>177</v>
+      </c>
+      <c r="C164" t="s">
+        <v>177</v>
+      </c>
+      <c r="L164" t="s">
         <v>299</v>
       </c>
-      <c r="M162" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163">
-        <v>14</v>
-      </c>
-      <c r="I163" t="s">
-        <v>8</v>
-      </c>
-      <c r="L163" t="s">
+      <c r="M164" t="s">
         <v>300</v>
       </c>
-      <c r="M163" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164" t="s">
-        <v>179</v>
-      </c>
-      <c r="C164" t="s">
-        <v>179</v>
-      </c>
-      <c r="D164" t="s">
-        <v>3</v>
-      </c>
-      <c r="I164" t="s">
-        <v>8</v>
-      </c>
-      <c r="L164" t="s">
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>117</v>
+      </c>
+      <c r="F165" t="s">
+        <v>117</v>
+      </c>
+      <c r="L165" t="s">
         <v>301</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M165" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>14</v>
+      </c>
+      <c r="L166" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
-        <v>118</v>
-      </c>
-      <c r="F165" t="s">
-        <v>118</v>
-      </c>
-      <c r="G165" t="s">
-        <v>6</v>
-      </c>
-      <c r="I165" t="s">
-        <v>8</v>
-      </c>
-      <c r="L165" t="s">
-        <v>303</v>
-      </c>
-      <c r="M165" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
-      <c r="A166">
-        <v>14</v>
-      </c>
-      <c r="I166" t="s">
-        <v>8</v>
-      </c>
-      <c r="L166" t="s">
-        <v>304</v>
-      </c>
       <c r="M166" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5607,57 +4874,42 @@
       <c r="F167" t="s">
         <v>22</v>
       </c>
-      <c r="G167" t="s">
-        <v>6</v>
-      </c>
-      <c r="I167" t="s">
-        <v>8</v>
-      </c>
       <c r="L167" t="s">
+        <v>303</v>
+      </c>
+      <c r="M167" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="L168" t="s">
         <v>305</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M168" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>76</v>
+      </c>
+      <c r="F169" t="s">
+        <v>76</v>
+      </c>
+      <c r="L169" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168">
-        <v>14</v>
-      </c>
-      <c r="I168" t="s">
-        <v>8</v>
-      </c>
-      <c r="L168" t="s">
-        <v>307</v>
-      </c>
-      <c r="M168" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="E169" t="s">
-        <v>77</v>
-      </c>
-      <c r="F169" t="s">
-        <v>77</v>
-      </c>
-      <c r="G169" t="s">
-        <v>6</v>
-      </c>
-      <c r="I169" t="s">
-        <v>8</v>
-      </c>
-      <c r="L169" t="s">
-        <v>308</v>
-      </c>
       <c r="M169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5667,73 +4919,61 @@
       <c r="C170" t="s">
         <v>58</v>
       </c>
-      <c r="D170" t="s">
-        <v>3</v>
-      </c>
-      <c r="I170" t="s">
-        <v>8</v>
-      </c>
       <c r="L170" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M170" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>17</v>
       </c>
-      <c r="I171" t="s">
-        <v>8</v>
-      </c>
       <c r="L171" t="s">
+        <v>309</v>
+      </c>
+      <c r="M171" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>14</v>
+      </c>
+      <c r="L172" t="s">
         <v>311</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M172" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
-      <c r="A172">
-        <v>14</v>
-      </c>
-      <c r="L172" t="s">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="L173" t="s">
         <v>313</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M173" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
-      <c r="A173">
-        <v>14</v>
-      </c>
-      <c r="L173" t="s">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>14</v>
+      </c>
+      <c r="L174" t="s">
         <v>315</v>
       </c>
-      <c r="M173" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="A174">
-        <v>14</v>
-      </c>
-      <c r="I174" t="s">
-        <v>8</v>
-      </c>
-      <c r="L174" t="s">
-        <v>317</v>
-      </c>
       <c r="M174" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5743,114 +4983,87 @@
       <c r="C175" t="s">
         <v>36</v>
       </c>
-      <c r="D175" t="s">
-        <v>3</v>
-      </c>
-      <c r="I175" t="s">
-        <v>8</v>
-      </c>
       <c r="L175" t="s">
+        <v>316</v>
+      </c>
+      <c r="M175" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>14</v>
+      </c>
+      <c r="L176" t="s">
         <v>318</v>
-      </c>
-      <c r="M175" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
-      <c r="A176">
-        <v>14</v>
-      </c>
-      <c r="I176" t="s">
-        <v>8</v>
-      </c>
-      <c r="L176" t="s">
-        <v>320</v>
       </c>
       <c r="M176" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>47</v>
       </c>
-      <c r="I177" t="s">
-        <v>8</v>
-      </c>
       <c r="K177" t="s">
+        <v>571</v>
+      </c>
+      <c r="L177" t="s">
+        <v>319</v>
+      </c>
+      <c r="M177" t="s">
         <v>175</v>
       </c>
-      <c r="L177" t="s">
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>269</v>
+      </c>
+      <c r="C178" t="s">
+        <v>269</v>
+      </c>
+      <c r="L178" t="s">
+        <v>320</v>
+      </c>
+      <c r="M178" t="s">
         <v>321</v>
       </c>
-      <c r="M177" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178" t="s">
-        <v>271</v>
-      </c>
-      <c r="C178" t="s">
-        <v>271</v>
-      </c>
-      <c r="D178" t="s">
-        <v>3</v>
-      </c>
-      <c r="I178" t="s">
-        <v>8</v>
-      </c>
-      <c r="L178" t="s">
-        <v>322</v>
-      </c>
-      <c r="M178" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F179" t="s">
-        <v>187</v>
-      </c>
-      <c r="G179" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="H179" t="s">
         <v>17</v>
       </c>
-      <c r="I179" t="s">
-        <v>8</v>
-      </c>
       <c r="L179" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M179" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>14</v>
       </c>
-      <c r="I180" t="s">
-        <v>8</v>
-      </c>
       <c r="L180" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M180" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5860,37 +5073,28 @@
       <c r="F181" t="s">
         <v>52</v>
       </c>
-      <c r="G181" t="s">
-        <v>6</v>
-      </c>
       <c r="H181" t="s">
         <v>17</v>
       </c>
-      <c r="I181" t="s">
-        <v>8</v>
-      </c>
       <c r="L181" t="s">
+        <v>325</v>
+      </c>
+      <c r="M181" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>14</v>
+      </c>
+      <c r="L182" t="s">
         <v>327</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M182" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
-      <c r="A182">
-        <v>14</v>
-      </c>
-      <c r="I182" t="s">
-        <v>8</v>
-      </c>
-      <c r="L182" t="s">
-        <v>329</v>
-      </c>
-      <c r="M182" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5900,213 +5104,165 @@
       <c r="F183" t="s">
         <v>62</v>
       </c>
-      <c r="G183" t="s">
-        <v>6</v>
-      </c>
-      <c r="I183" t="s">
-        <v>8</v>
-      </c>
       <c r="L183" t="s">
+        <v>329</v>
+      </c>
+      <c r="M183" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>14</v>
+      </c>
+      <c r="L184" t="s">
+        <v>330</v>
+      </c>
+      <c r="M184" t="s">
         <v>331</v>
       </c>
-      <c r="M183" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13">
-      <c r="A184">
-        <v>14</v>
-      </c>
-      <c r="I184" t="s">
-        <v>8</v>
-      </c>
-      <c r="L184" t="s">
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>142</v>
+      </c>
+      <c r="F185" t="s">
+        <v>142</v>
+      </c>
+      <c r="L185" t="s">
         <v>332</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M185" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>14</v>
+      </c>
+      <c r="L186" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="E185" t="s">
-        <v>143</v>
-      </c>
-      <c r="F185" t="s">
-        <v>143</v>
-      </c>
-      <c r="G185" t="s">
-        <v>6</v>
-      </c>
-      <c r="I185" t="s">
-        <v>8</v>
-      </c>
-      <c r="L185" t="s">
+      <c r="M186" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
         <v>334</v>
       </c>
-      <c r="M185" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13">
-      <c r="A186">
-        <v>14</v>
-      </c>
-      <c r="I186" t="s">
-        <v>8</v>
-      </c>
-      <c r="L186" t="s">
+      <c r="C187" t="s">
+        <v>334</v>
+      </c>
+      <c r="L187" t="s">
         <v>335</v>
       </c>
-      <c r="M186" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="M187" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>14</v>
+      </c>
+      <c r="L188" t="s">
         <v>336</v>
       </c>
-      <c r="C187" t="s">
-        <v>336</v>
-      </c>
-      <c r="D187" t="s">
-        <v>3</v>
-      </c>
-      <c r="I187" t="s">
-        <v>8</v>
-      </c>
-      <c r="L187" t="s">
+      <c r="M188" t="s">
         <v>337</v>
       </c>
-      <c r="M187" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188">
-        <v>14</v>
-      </c>
-      <c r="I188" t="s">
-        <v>8</v>
-      </c>
-      <c r="L188" t="s">
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189" t="s">
+        <v>156</v>
+      </c>
+      <c r="L189" t="s">
         <v>338</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M189" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189" t="s">
-        <v>157</v>
-      </c>
-      <c r="C189" t="s">
-        <v>157</v>
-      </c>
-      <c r="D189" t="s">
-        <v>3</v>
-      </c>
-      <c r="I189" t="s">
-        <v>8</v>
-      </c>
-      <c r="L189" t="s">
-        <v>340</v>
-      </c>
-      <c r="M189" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>28</v>
       </c>
       <c r="I190" t="s">
+        <v>567</v>
+      </c>
+      <c r="L190" t="s">
+        <v>340</v>
+      </c>
+      <c r="M190" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>14</v>
+      </c>
+      <c r="L191" t="s">
         <v>342</v>
       </c>
-      <c r="L190" t="s">
-        <v>343</v>
-      </c>
-      <c r="M190" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191">
-        <v>14</v>
-      </c>
-      <c r="I191" t="s">
-        <v>8</v>
-      </c>
-      <c r="L191" t="s">
-        <v>345</v>
-      </c>
       <c r="M191" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
       <c r="H192" t="s">
         <v>17</v>
       </c>
-      <c r="I192" t="s">
-        <v>8</v>
-      </c>
       <c r="L192" t="s">
+        <v>343</v>
+      </c>
+      <c r="M192" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>269</v>
+      </c>
+      <c r="C193" t="s">
+        <v>269</v>
+      </c>
+      <c r="L193" t="s">
+        <v>344</v>
+      </c>
+      <c r="M193" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>14</v>
+      </c>
+      <c r="L194" t="s">
         <v>346</v>
       </c>
-      <c r="M192" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193" t="s">
-        <v>271</v>
-      </c>
-      <c r="C193" t="s">
-        <v>271</v>
-      </c>
-      <c r="D193" t="s">
-        <v>3</v>
-      </c>
-      <c r="I193" t="s">
-        <v>8</v>
-      </c>
-      <c r="L193" t="s">
-        <v>347</v>
-      </c>
-      <c r="M193" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194">
-        <v>14</v>
-      </c>
-      <c r="I194" t="s">
-        <v>8</v>
-      </c>
-      <c r="L194" t="s">
-        <v>349</v>
-      </c>
       <c r="M194" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6116,191 +5272,146 @@
       <c r="C195" t="s">
         <v>41</v>
       </c>
-      <c r="D195" t="s">
-        <v>3</v>
-      </c>
-      <c r="I195" t="s">
-        <v>8</v>
-      </c>
       <c r="L195" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M195" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>47</v>
       </c>
-      <c r="I196" t="s">
-        <v>8</v>
-      </c>
       <c r="K196" t="s">
+        <v>571</v>
+      </c>
+      <c r="L196" t="s">
+        <v>348</v>
+      </c>
+      <c r="M196" t="s">
         <v>175</v>
       </c>
-      <c r="L196" t="s">
-        <v>351</v>
-      </c>
-      <c r="M196" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F197" t="s">
-        <v>271</v>
-      </c>
-      <c r="G197" t="s">
-        <v>6</v>
-      </c>
-      <c r="I197" t="s">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="L197" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M197" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>354</v>
-      </c>
-      <c r="I198" t="s">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="L198" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M198" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F199" t="s">
-        <v>99</v>
-      </c>
-      <c r="G199" t="s">
-        <v>6</v>
-      </c>
-      <c r="I199" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="L199" t="s">
+        <v>353</v>
+      </c>
+      <c r="M199" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="L200" t="s">
+        <v>354</v>
+      </c>
+      <c r="M200" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="E201" t="s">
         <v>356</v>
       </c>
-      <c r="M199" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200">
-        <v>14</v>
-      </c>
-      <c r="I200" t="s">
-        <v>8</v>
-      </c>
-      <c r="L200" t="s">
+      <c r="F201" t="s">
+        <v>356</v>
+      </c>
+      <c r="L201" t="s">
         <v>357</v>
       </c>
-      <c r="M200" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="E201" t="s">
-        <v>359</v>
-      </c>
-      <c r="F201" t="s">
-        <v>359</v>
-      </c>
-      <c r="G201" t="s">
-        <v>6</v>
-      </c>
-      <c r="I201" t="s">
-        <v>8</v>
-      </c>
-      <c r="L201" t="s">
-        <v>360</v>
-      </c>
       <c r="M201" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>47</v>
       </c>
-      <c r="I202" t="s">
-        <v>8</v>
-      </c>
       <c r="K202" t="s">
+        <v>571</v>
+      </c>
+      <c r="L202" t="s">
+        <v>358</v>
+      </c>
+      <c r="M202" t="s">
         <v>175</v>
       </c>
-      <c r="L202" t="s">
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>334</v>
+      </c>
+      <c r="C203" t="s">
+        <v>334</v>
+      </c>
+      <c r="L203" t="s">
+        <v>359</v>
+      </c>
+      <c r="M203" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="L204" t="s">
         <v>361</v>
       </c>
-      <c r="M202" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203" t="s">
-        <v>336</v>
-      </c>
-      <c r="C203" t="s">
-        <v>336</v>
-      </c>
-      <c r="D203" t="s">
-        <v>3</v>
-      </c>
-      <c r="I203" t="s">
-        <v>8</v>
-      </c>
-      <c r="L203" t="s">
-        <v>362</v>
-      </c>
-      <c r="M203" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204">
-        <v>14</v>
-      </c>
-      <c r="I204" t="s">
-        <v>8</v>
-      </c>
-      <c r="L204" t="s">
-        <v>364</v>
-      </c>
       <c r="M204" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6310,37 +5421,28 @@
       <c r="C205" t="s">
         <v>21</v>
       </c>
-      <c r="D205" t="s">
-        <v>3</v>
-      </c>
-      <c r="I205" t="s">
-        <v>8</v>
-      </c>
       <c r="L205" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M205" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>366</v>
-      </c>
-      <c r="I206" t="s">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="L206" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M206" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -6350,57 +5452,42 @@
       <c r="C207" t="s">
         <v>51</v>
       </c>
-      <c r="D207" t="s">
-        <v>3</v>
-      </c>
-      <c r="I207" t="s">
-        <v>8</v>
-      </c>
       <c r="L207" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M207" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>177</v>
+      </c>
+      <c r="F208" t="s">
+        <v>177</v>
+      </c>
+      <c r="L208" t="s">
+        <v>367</v>
+      </c>
+      <c r="M208" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="L209" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="E208" t="s">
-        <v>179</v>
-      </c>
-      <c r="F208" t="s">
-        <v>179</v>
-      </c>
-      <c r="G208" t="s">
-        <v>6</v>
-      </c>
-      <c r="I208" t="s">
-        <v>8</v>
-      </c>
-      <c r="L208" t="s">
-        <v>370</v>
-      </c>
-      <c r="M208" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209">
-        <v>14</v>
-      </c>
-      <c r="I209" t="s">
-        <v>8</v>
-      </c>
-      <c r="L209" t="s">
-        <v>371</v>
-      </c>
       <c r="M209" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6410,51 +5497,39 @@
       <c r="F210" t="s">
         <v>28</v>
       </c>
-      <c r="G210" t="s">
-        <v>6</v>
-      </c>
-      <c r="I210" t="s">
-        <v>8</v>
-      </c>
       <c r="L210" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M210" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>14</v>
       </c>
-      <c r="I211" t="s">
-        <v>8</v>
-      </c>
       <c r="L211" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M211" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
       <c r="H212" t="s">
         <v>17</v>
       </c>
-      <c r="I212" t="s">
-        <v>8</v>
-      </c>
       <c r="L212" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M212" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6464,134 +5539,101 @@
       <c r="F213" t="s">
         <v>21</v>
       </c>
-      <c r="G213" t="s">
-        <v>6</v>
-      </c>
-      <c r="I213" t="s">
-        <v>8</v>
-      </c>
       <c r="L213" t="s">
+        <v>374</v>
+      </c>
+      <c r="M213" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="L214" t="s">
+        <v>375</v>
+      </c>
+      <c r="M214" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>269</v>
+      </c>
+      <c r="F215" t="s">
+        <v>269</v>
+      </c>
+      <c r="L215" t="s">
+        <v>376</v>
+      </c>
+      <c r="M215" t="s">
         <v>377</v>
       </c>
-      <c r="M213" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="A214">
-        <v>14</v>
-      </c>
-      <c r="I214" t="s">
-        <v>8</v>
-      </c>
-      <c r="L214" t="s">
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
         <v>378</v>
       </c>
-      <c r="M214" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="E215" t="s">
-        <v>271</v>
-      </c>
-      <c r="F215" t="s">
-        <v>271</v>
-      </c>
-      <c r="G215" t="s">
-        <v>6</v>
-      </c>
-      <c r="I215" t="s">
-        <v>8</v>
-      </c>
-      <c r="L215" t="s">
+      <c r="C216" t="s">
+        <v>378</v>
+      </c>
+      <c r="L216" t="s">
         <v>379</v>
       </c>
-      <c r="M215" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" t="s">
-        <v>381</v>
-      </c>
-      <c r="C216" t="s">
-        <v>381</v>
-      </c>
-      <c r="D216" t="s">
-        <v>3</v>
-      </c>
-      <c r="I216" t="s">
-        <v>8</v>
-      </c>
-      <c r="L216" t="s">
-        <v>382</v>
-      </c>
       <c r="M216" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
       <c r="H217" t="s">
-        <v>383</v>
-      </c>
-      <c r="I217" t="s">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="L217" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M217" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C218" t="s">
-        <v>179</v>
-      </c>
-      <c r="D218" t="s">
-        <v>3</v>
-      </c>
-      <c r="I218" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="L218" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M218" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>14</v>
       </c>
-      <c r="I219" t="s">
-        <v>8</v>
-      </c>
       <c r="L219" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M219" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6601,60 +5643,45 @@
       <c r="C220" t="s">
         <v>30</v>
       </c>
-      <c r="D220" t="s">
-        <v>3</v>
-      </c>
       <c r="H220" t="s">
-        <v>387</v>
-      </c>
-      <c r="I220" t="s">
-        <v>8</v>
+        <v>384</v>
       </c>
       <c r="L220" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M220" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14</v>
       </c>
-      <c r="I221" t="s">
-        <v>8</v>
-      </c>
       <c r="L221" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M221" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C222" t="s">
-        <v>242</v>
-      </c>
-      <c r="D222" t="s">
-        <v>3</v>
-      </c>
-      <c r="I222" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="L222" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M222" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6664,116 +5691,92 @@
       <c r="F223" t="s">
         <v>58</v>
       </c>
-      <c r="G223" t="s">
-        <v>6</v>
-      </c>
-      <c r="I223" t="s">
-        <v>8</v>
-      </c>
       <c r="L223" t="s">
+        <v>389</v>
+      </c>
+      <c r="M223" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>14</v>
+      </c>
+      <c r="L224" t="s">
+        <v>390</v>
+      </c>
+      <c r="M224" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>14</v>
+      </c>
+      <c r="L225" t="s">
         <v>392</v>
       </c>
-      <c r="M223" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224">
-        <v>14</v>
-      </c>
-      <c r="I224" t="s">
-        <v>8</v>
-      </c>
-      <c r="L224" t="s">
+      <c r="M225" t="s">
         <v>393</v>
       </c>
-      <c r="M224" t="s">
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>114</v>
+      </c>
+      <c r="F226" t="s">
+        <v>114</v>
+      </c>
+      <c r="L226" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="A225">
-        <v>14</v>
-      </c>
-      <c r="I225" t="s">
-        <v>8</v>
-      </c>
-      <c r="L225" t="s">
+      <c r="M226" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>14</v>
+      </c>
+      <c r="L227" t="s">
         <v>395</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M227" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>14</v>
+      </c>
+      <c r="L228" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="E226" t="s">
-        <v>115</v>
-      </c>
-      <c r="F226" t="s">
-        <v>115</v>
-      </c>
-      <c r="G226" t="s">
-        <v>6</v>
-      </c>
-      <c r="I226" t="s">
-        <v>8</v>
-      </c>
-      <c r="L226" t="s">
+      <c r="M228" t="s">
         <v>397</v>
       </c>
-      <c r="M226" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227">
-        <v>14</v>
-      </c>
-      <c r="L227" t="s">
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
         <v>398</v>
       </c>
-      <c r="M227" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228">
-        <v>14</v>
-      </c>
-      <c r="L228" t="s">
+      <c r="F229" t="s">
+        <v>398</v>
+      </c>
+      <c r="L229" t="s">
         <v>399</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M229" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="E229" t="s">
-        <v>401</v>
-      </c>
-      <c r="F229" t="s">
-        <v>401</v>
-      </c>
-      <c r="G229" t="s">
-        <v>6</v>
-      </c>
-      <c r="I229" t="s">
-        <v>8</v>
-      </c>
-      <c r="L229" t="s">
-        <v>402</v>
-      </c>
-      <c r="M229" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -6783,37 +5786,28 @@
       <c r="C230" t="s">
         <v>21</v>
       </c>
-      <c r="D230" t="s">
-        <v>3</v>
-      </c>
       <c r="H230" t="s">
+        <v>401</v>
+      </c>
+      <c r="L230" t="s">
+        <v>402</v>
+      </c>
+      <c r="M230" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>14</v>
+      </c>
+      <c r="L231" t="s">
+        <v>403</v>
+      </c>
+      <c r="M231" t="s">
         <v>404</v>
       </c>
-      <c r="I230" t="s">
-        <v>8</v>
-      </c>
-      <c r="L230" t="s">
-        <v>405</v>
-      </c>
-      <c r="M230" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="A231">
-        <v>14</v>
-      </c>
-      <c r="I231" t="s">
-        <v>8</v>
-      </c>
-      <c r="L231" t="s">
-        <v>406</v>
-      </c>
-      <c r="M231" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13">
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -6823,34 +5817,25 @@
       <c r="C232" t="s">
         <v>41</v>
       </c>
-      <c r="D232" t="s">
-        <v>3</v>
-      </c>
-      <c r="I232" t="s">
-        <v>8</v>
-      </c>
       <c r="L232" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M232" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>14</v>
       </c>
-      <c r="I233" t="s">
-        <v>8</v>
-      </c>
       <c r="L233" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M233" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6860,71 +5845,53 @@
       <c r="C234" t="s">
         <v>48</v>
       </c>
-      <c r="D234" t="s">
-        <v>3</v>
-      </c>
-      <c r="I234" t="s">
-        <v>8</v>
-      </c>
       <c r="L234" t="s">
+        <v>408</v>
+      </c>
+      <c r="M234" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>117</v>
+      </c>
+      <c r="F235" t="s">
+        <v>117</v>
+      </c>
+      <c r="L235" t="s">
+        <v>409</v>
+      </c>
+      <c r="M235" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>14</v>
+      </c>
+      <c r="L236" t="s">
+        <v>410</v>
+      </c>
+      <c r="M236" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="L237" t="s">
         <v>411</v>
       </c>
-      <c r="M234" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="E235" t="s">
-        <v>118</v>
-      </c>
-      <c r="F235" t="s">
-        <v>118</v>
-      </c>
-      <c r="G235" t="s">
-        <v>6</v>
-      </c>
-      <c r="I235" t="s">
-        <v>8</v>
-      </c>
-      <c r="L235" t="s">
+      <c r="M237" t="s">
         <v>412</v>
       </c>
-      <c r="M235" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13">
-      <c r="A236">
-        <v>14</v>
-      </c>
-      <c r="I236" t="s">
-        <v>8</v>
-      </c>
-      <c r="L236" t="s">
-        <v>413</v>
-      </c>
-      <c r="M236" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13">
-      <c r="A237">
-        <v>14</v>
-      </c>
-      <c r="I237" t="s">
-        <v>8</v>
-      </c>
-      <c r="L237" t="s">
-        <v>414</v>
-      </c>
-      <c r="M237" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13">
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -6934,74 +5901,56 @@
       <c r="F238" t="s">
         <v>61</v>
       </c>
-      <c r="G238" t="s">
-        <v>6</v>
-      </c>
-      <c r="I238" t="s">
-        <v>8</v>
-      </c>
       <c r="L238" t="s">
+        <v>413</v>
+      </c>
+      <c r="M238" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>14</v>
+      </c>
+      <c r="L239" t="s">
+        <v>415</v>
+      </c>
+      <c r="M239" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>114</v>
+      </c>
+      <c r="F240" t="s">
+        <v>114</v>
+      </c>
+      <c r="H240" t="s">
         <v>416</v>
       </c>
-      <c r="M238" t="s">
+      <c r="L240" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13">
-      <c r="A239">
-        <v>14</v>
-      </c>
-      <c r="I239" t="s">
-        <v>8</v>
-      </c>
-      <c r="L239" t="s">
-        <v>418</v>
-      </c>
-      <c r="M239" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13">
-      <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="E240" t="s">
-        <v>115</v>
-      </c>
-      <c r="F240" t="s">
-        <v>115</v>
-      </c>
-      <c r="G240" t="s">
-        <v>6</v>
-      </c>
-      <c r="H240" t="s">
-        <v>419</v>
-      </c>
-      <c r="I240" t="s">
-        <v>8</v>
-      </c>
-      <c r="L240" t="s">
-        <v>420</v>
       </c>
       <c r="M240" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
-      <c r="I241" t="s">
-        <v>8</v>
-      </c>
       <c r="L241" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M241" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7011,20 +5960,14 @@
       <c r="F242" t="s">
         <v>49</v>
       </c>
-      <c r="G242" t="s">
-        <v>6</v>
-      </c>
-      <c r="I242" t="s">
-        <v>8</v>
-      </c>
       <c r="L242" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M242" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -7034,34 +5977,25 @@
       <c r="C243" t="s">
         <v>51</v>
       </c>
-      <c r="D243" t="s">
-        <v>3</v>
-      </c>
-      <c r="I243" t="s">
-        <v>8</v>
-      </c>
       <c r="L243" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M243" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>14</v>
+      </c>
+      <c r="L244" t="s">
+        <v>423</v>
+      </c>
+      <c r="M244" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
-      <c r="A244">
-        <v>14</v>
-      </c>
-      <c r="I244" t="s">
-        <v>8</v>
-      </c>
-      <c r="L244" t="s">
-        <v>426</v>
-      </c>
-      <c r="M244" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -7071,34 +6005,25 @@
       <c r="C245" t="s">
         <v>21</v>
       </c>
-      <c r="D245" t="s">
-        <v>3</v>
-      </c>
-      <c r="I245" t="s">
-        <v>8</v>
-      </c>
       <c r="L245" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M245" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>14</v>
+      </c>
+      <c r="L246" t="s">
+        <v>426</v>
+      </c>
+      <c r="M246" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
-      <c r="A246">
-        <v>14</v>
-      </c>
-      <c r="I246" t="s">
-        <v>8</v>
-      </c>
-      <c r="L246" t="s">
-        <v>429</v>
-      </c>
-      <c r="M246" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -7108,111 +6033,84 @@
       <c r="C247" t="s">
         <v>30</v>
       </c>
-      <c r="D247" t="s">
-        <v>3</v>
-      </c>
-      <c r="I247" t="s">
-        <v>8</v>
-      </c>
       <c r="L247" t="s">
+        <v>428</v>
+      </c>
+      <c r="M247" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>14</v>
+      </c>
+      <c r="L248" t="s">
+        <v>429</v>
+      </c>
+      <c r="M248" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>14</v>
+      </c>
+      <c r="L249" t="s">
+        <v>430</v>
+      </c>
+      <c r="M249" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>94</v>
+      </c>
+      <c r="C250" t="s">
+        <v>94</v>
+      </c>
+      <c r="H250" t="s">
+        <v>159</v>
+      </c>
+      <c r="L250" t="s">
         <v>431</v>
       </c>
-      <c r="M247" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13">
-      <c r="A248">
-        <v>14</v>
-      </c>
-      <c r="I248" t="s">
-        <v>8</v>
-      </c>
-      <c r="L248" t="s">
+      <c r="M250" t="s">
         <v>432</v>
       </c>
-      <c r="M248" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13">
-      <c r="A249">
-        <v>14</v>
-      </c>
-      <c r="I249" t="s">
-        <v>8</v>
-      </c>
-      <c r="L249" t="s">
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>276</v>
+      </c>
+      <c r="F251" t="s">
+        <v>276</v>
+      </c>
+      <c r="L251" t="s">
         <v>433</v>
       </c>
-      <c r="M249" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250" t="s">
-        <v>95</v>
-      </c>
-      <c r="C250" t="s">
-        <v>95</v>
-      </c>
-      <c r="D250" t="s">
-        <v>3</v>
-      </c>
-      <c r="H250" t="s">
-        <v>160</v>
-      </c>
-      <c r="I250" t="s">
-        <v>8</v>
-      </c>
-      <c r="L250" t="s">
+      <c r="M251" t="s">
         <v>434</v>
       </c>
-      <c r="M250" t="s">
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>14</v>
+      </c>
+      <c r="L252" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="251" spans="1:13">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="E251" t="s">
-        <v>278</v>
-      </c>
-      <c r="F251" t="s">
-        <v>278</v>
-      </c>
-      <c r="G251" t="s">
-        <v>6</v>
-      </c>
-      <c r="I251" t="s">
-        <v>8</v>
-      </c>
-      <c r="L251" t="s">
+      <c r="M252" t="s">
         <v>436</v>
       </c>
-      <c r="M251" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13">
-      <c r="A252">
-        <v>14</v>
-      </c>
-      <c r="I252" t="s">
-        <v>8</v>
-      </c>
-      <c r="L252" t="s">
-        <v>438</v>
-      </c>
-      <c r="M252" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13">
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -7222,206 +6120,164 @@
       <c r="F253" t="s">
         <v>42</v>
       </c>
-      <c r="G253" t="s">
-        <v>6</v>
-      </c>
-      <c r="I253" t="s">
-        <v>8</v>
-      </c>
       <c r="L253" t="s">
+        <v>437</v>
+      </c>
+      <c r="M253" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>14</v>
+      </c>
+      <c r="L254" t="s">
+        <v>438</v>
+      </c>
+      <c r="M254" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>98</v>
+      </c>
+      <c r="F255" t="s">
+        <v>98</v>
+      </c>
+      <c r="L255" t="s">
+        <v>439</v>
+      </c>
+      <c r="M255" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>185</v>
+      </c>
+      <c r="C256" t="s">
+        <v>185</v>
+      </c>
+      <c r="L256" t="s">
         <v>440</v>
       </c>
-      <c r="M253" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13">
-      <c r="A254">
-        <v>14</v>
-      </c>
-      <c r="I254" t="s">
-        <v>8</v>
-      </c>
-      <c r="L254" t="s">
+      <c r="M256" t="s">
         <v>441</v>
       </c>
-      <c r="M254" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="E255" t="s">
-        <v>99</v>
-      </c>
-      <c r="F255" t="s">
-        <v>99</v>
-      </c>
-      <c r="G255" t="s">
-        <v>6</v>
-      </c>
-      <c r="I255" t="s">
-        <v>8</v>
-      </c>
-      <c r="L255" t="s">
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>14</v>
+      </c>
+      <c r="L257" t="s">
         <v>442</v>
       </c>
-      <c r="M255" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256" t="s">
-        <v>187</v>
-      </c>
-      <c r="C256" t="s">
-        <v>187</v>
-      </c>
-      <c r="D256" t="s">
-        <v>3</v>
-      </c>
-      <c r="I256" t="s">
-        <v>8</v>
-      </c>
-      <c r="L256" t="s">
+      <c r="M257" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>14</v>
+      </c>
+      <c r="L258" t="s">
         <v>443</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M258" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>14</v>
+      </c>
+      <c r="L259" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
-      <c r="A257">
-        <v>14</v>
-      </c>
-      <c r="L257" t="s">
+      <c r="M259" t="s">
         <v>445</v>
       </c>
-      <c r="M257" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13">
-      <c r="A258">
-        <v>14</v>
-      </c>
-      <c r="L258" t="s">
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="L260" t="s">
         <v>446</v>
       </c>
-      <c r="M258" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13">
-      <c r="A259">
-        <v>14</v>
-      </c>
-      <c r="I259" t="s">
-        <v>8</v>
-      </c>
-      <c r="L259" t="s">
+      <c r="M260" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>14</v>
+      </c>
+      <c r="L261" t="s">
         <v>447</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M261" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>98</v>
+      </c>
+      <c r="C262" t="s">
+        <v>98</v>
+      </c>
+      <c r="L262" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="260" spans="1:13">
-      <c r="A260">
-        <v>14</v>
-      </c>
-      <c r="I260" t="s">
-        <v>8</v>
-      </c>
-      <c r="L260" t="s">
+      <c r="M262" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>14</v>
+      </c>
+      <c r="L263" t="s">
         <v>449</v>
       </c>
-      <c r="M260" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13">
-      <c r="A261">
-        <v>14</v>
-      </c>
-      <c r="I261" t="s">
-        <v>8</v>
-      </c>
-      <c r="L261" t="s">
+      <c r="M263" t="s">
         <v>450</v>
       </c>
-      <c r="M261" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262" t="s">
-        <v>99</v>
-      </c>
-      <c r="C262" t="s">
-        <v>99</v>
-      </c>
-      <c r="D262" t="s">
-        <v>3</v>
-      </c>
-      <c r="I262" t="s">
-        <v>8</v>
-      </c>
-      <c r="L262" t="s">
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>14</v>
+      </c>
+      <c r="L264" t="s">
         <v>451</v>
       </c>
-      <c r="M262" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13">
-      <c r="A263">
-        <v>14</v>
-      </c>
-      <c r="I263" t="s">
-        <v>8</v>
-      </c>
-      <c r="L263" t="s">
+      <c r="M264" t="s">
         <v>452</v>
       </c>
-      <c r="M263" t="s">
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>14</v>
+      </c>
+      <c r="L265" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
-      <c r="A264">
-        <v>14</v>
-      </c>
-      <c r="L264" t="s">
+      <c r="M265" t="s">
         <v>454</v>
       </c>
-      <c r="M264" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13">
-      <c r="A265">
-        <v>14</v>
-      </c>
-      <c r="I265" t="s">
-        <v>8</v>
-      </c>
-      <c r="L265" t="s">
-        <v>456</v>
-      </c>
-      <c r="M265" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13">
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7431,60 +6287,45 @@
       <c r="C266" t="s">
         <v>49</v>
       </c>
-      <c r="D266" t="s">
-        <v>3</v>
-      </c>
-      <c r="I266" t="s">
-        <v>8</v>
-      </c>
       <c r="L266" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M266" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
       <c r="E267" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F267" t="s">
-        <v>73</v>
-      </c>
-      <c r="G267" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H267" t="s">
         <v>17</v>
       </c>
-      <c r="I267" t="s">
-        <v>8</v>
-      </c>
       <c r="L267" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M267" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>14</v>
       </c>
-      <c r="I268" t="s">
-        <v>8</v>
-      </c>
       <c r="L268" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M268" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7494,93 +6335,75 @@
       <c r="F269" t="s">
         <v>49</v>
       </c>
-      <c r="G269" t="s">
-        <v>6</v>
-      </c>
-      <c r="I269" t="s">
-        <v>8</v>
-      </c>
       <c r="L269" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M269" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>14</v>
       </c>
       <c r="L270" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M270" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>14</v>
       </c>
       <c r="L271" t="s">
+        <v>462</v>
+      </c>
+      <c r="M271" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>463</v>
+      </c>
+      <c r="F272" t="s">
+        <v>463</v>
+      </c>
+      <c r="L272" t="s">
+        <v>464</v>
+      </c>
+      <c r="M272" t="s">
         <v>465</v>
       </c>
-      <c r="M271" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13">
-      <c r="A272">
-        <v>1</v>
-      </c>
-      <c r="E272" t="s">
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>14</v>
+      </c>
+      <c r="L273" t="s">
         <v>466</v>
       </c>
-      <c r="F272" t="s">
-        <v>466</v>
-      </c>
-      <c r="G272" t="s">
-        <v>6</v>
-      </c>
-      <c r="I272" t="s">
-        <v>8</v>
-      </c>
-      <c r="L272" t="s">
+      <c r="M273" t="s">
         <v>467</v>
       </c>
-      <c r="M272" t="s">
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>14</v>
+      </c>
+      <c r="L274" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
-      <c r="A273">
-        <v>14</v>
-      </c>
-      <c r="I273" t="s">
-        <v>8</v>
-      </c>
-      <c r="L273" t="s">
+      <c r="M274" t="s">
         <v>469</v>
       </c>
-      <c r="M273" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13">
-      <c r="A274">
-        <v>14</v>
-      </c>
-      <c r="I274" t="s">
-        <v>8</v>
-      </c>
-      <c r="L274" t="s">
-        <v>471</v>
-      </c>
-      <c r="M274" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13">
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -7590,71 +6413,53 @@
       <c r="F275" t="s">
         <v>48</v>
       </c>
-      <c r="G275" t="s">
-        <v>6</v>
-      </c>
-      <c r="I275" t="s">
-        <v>8</v>
-      </c>
       <c r="L275" t="s">
+        <v>470</v>
+      </c>
+      <c r="M275" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>14</v>
+      </c>
+      <c r="L276" t="s">
+        <v>471</v>
+      </c>
+      <c r="M276" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>206</v>
+      </c>
+      <c r="C277" t="s">
+        <v>206</v>
+      </c>
+      <c r="L277" t="s">
         <v>473</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M277" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
-      <c r="A276">
-        <v>14</v>
-      </c>
-      <c r="I276" t="s">
-        <v>8</v>
-      </c>
-      <c r="L276" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>14</v>
+      </c>
+      <c r="L278" t="s">
         <v>474</v>
-      </c>
-      <c r="M276" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13">
-      <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277" t="s">
-        <v>208</v>
-      </c>
-      <c r="C277" t="s">
-        <v>208</v>
-      </c>
-      <c r="D277" t="s">
-        <v>3</v>
-      </c>
-      <c r="I277" t="s">
-        <v>8</v>
-      </c>
-      <c r="L277" t="s">
-        <v>476</v>
-      </c>
-      <c r="M277" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13">
-      <c r="A278">
-        <v>14</v>
-      </c>
-      <c r="I278" t="s">
-        <v>8</v>
-      </c>
-      <c r="L278" t="s">
-        <v>477</v>
       </c>
       <c r="M278" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -7664,34 +6469,25 @@
       <c r="C279" t="s">
         <v>58</v>
       </c>
-      <c r="D279" t="s">
-        <v>3</v>
-      </c>
-      <c r="I279" t="s">
-        <v>8</v>
-      </c>
       <c r="L279" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M279" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>14</v>
       </c>
-      <c r="I280" t="s">
-        <v>8</v>
-      </c>
       <c r="L280" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M280" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7701,60 +6497,45 @@
       <c r="C281" t="s">
         <v>30</v>
       </c>
-      <c r="D281" t="s">
-        <v>3</v>
-      </c>
       <c r="H281" t="s">
         <v>17</v>
       </c>
-      <c r="I281" t="s">
-        <v>8</v>
-      </c>
       <c r="L281" t="s">
+        <v>478</v>
+      </c>
+      <c r="M281" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>14</v>
+      </c>
+      <c r="L282" t="s">
+        <v>479</v>
+      </c>
+      <c r="M282" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>142</v>
+      </c>
+      <c r="C283" t="s">
+        <v>142</v>
+      </c>
+      <c r="L283" t="s">
         <v>481</v>
       </c>
-      <c r="M281" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13">
-      <c r="A282">
-        <v>14</v>
-      </c>
-      <c r="I282" t="s">
-        <v>8</v>
-      </c>
-      <c r="L282" t="s">
+      <c r="M283" t="s">
         <v>482</v>
       </c>
-      <c r="M282" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13">
-      <c r="A283">
-        <v>1</v>
-      </c>
-      <c r="B283" t="s">
-        <v>143</v>
-      </c>
-      <c r="C283" t="s">
-        <v>143</v>
-      </c>
-      <c r="D283" t="s">
-        <v>3</v>
-      </c>
-      <c r="I283" t="s">
-        <v>8</v>
-      </c>
-      <c r="L283" t="s">
-        <v>484</v>
-      </c>
-      <c r="M283" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13">
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7764,247 +6545,193 @@
       <c r="F284" t="s">
         <v>30</v>
       </c>
-      <c r="G284" t="s">
-        <v>6</v>
-      </c>
-      <c r="I284" t="s">
-        <v>8</v>
-      </c>
       <c r="L284" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M284" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>14</v>
+      </c>
+      <c r="L285" t="s">
+        <v>484</v>
+      </c>
+      <c r="M285" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="E286" t="s">
+        <v>72</v>
+      </c>
+      <c r="F286" t="s">
+        <v>72</v>
+      </c>
+      <c r="L286" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="285" spans="1:13">
-      <c r="A285">
-        <v>14</v>
-      </c>
-      <c r="I285" t="s">
-        <v>8</v>
-      </c>
-      <c r="L285" t="s">
-        <v>487</v>
-      </c>
-      <c r="M285" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13">
-      <c r="A286">
-        <v>1</v>
-      </c>
-      <c r="E286" t="s">
-        <v>73</v>
-      </c>
-      <c r="F286" t="s">
-        <v>73</v>
-      </c>
-      <c r="G286" t="s">
-        <v>6</v>
-      </c>
-      <c r="I286" t="s">
-        <v>8</v>
-      </c>
-      <c r="L286" t="s">
-        <v>488</v>
-      </c>
       <c r="M286" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>47</v>
       </c>
-      <c r="I287" t="s">
-        <v>8</v>
-      </c>
       <c r="K287" t="s">
+        <v>571</v>
+      </c>
+      <c r="L287" t="s">
+        <v>486</v>
+      </c>
+      <c r="M287" t="s">
         <v>175</v>
       </c>
-      <c r="L287" t="s">
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>14</v>
+      </c>
+      <c r="L288" t="s">
+        <v>487</v>
+      </c>
+      <c r="M288" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>14</v>
+      </c>
+      <c r="L289" t="s">
         <v>489</v>
       </c>
-      <c r="M287" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13">
-      <c r="A288">
-        <v>14</v>
-      </c>
-      <c r="I288" t="s">
-        <v>8</v>
-      </c>
-      <c r="L288" t="s">
+      <c r="M289" t="s">
         <v>490</v>
       </c>
-      <c r="M288" t="s">
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>14</v>
+      </c>
+      <c r="L290" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="289" spans="1:13">
-      <c r="A289">
-        <v>14</v>
-      </c>
-      <c r="L289" t="s">
+      <c r="M290" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>115</v>
+      </c>
+      <c r="F291" t="s">
+        <v>115</v>
+      </c>
+      <c r="L291" t="s">
         <v>492</v>
       </c>
-      <c r="M289" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13">
-      <c r="A290">
-        <v>14</v>
-      </c>
-      <c r="L290" t="s">
-        <v>494</v>
-      </c>
-      <c r="M290" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13">
-      <c r="A291">
-        <v>1</v>
-      </c>
-      <c r="E291" t="s">
-        <v>116</v>
-      </c>
-      <c r="F291" t="s">
-        <v>116</v>
-      </c>
-      <c r="G291" t="s">
-        <v>6</v>
-      </c>
-      <c r="I291" t="s">
-        <v>8</v>
-      </c>
-      <c r="L291" t="s">
-        <v>495</v>
-      </c>
       <c r="M291" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C292" t="s">
-        <v>116</v>
-      </c>
-      <c r="D292" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="H292" t="s">
         <v>17</v>
       </c>
-      <c r="I292" t="s">
-        <v>8</v>
-      </c>
       <c r="L292" t="s">
+        <v>493</v>
+      </c>
+      <c r="M292" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>14</v>
+      </c>
+      <c r="L293" t="s">
+        <v>495</v>
+      </c>
+      <c r="M293" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294" t="s">
         <v>496</v>
       </c>
-      <c r="M292" t="s">
+      <c r="C294" t="s">
+        <v>496</v>
+      </c>
+      <c r="E294" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="293" spans="1:13">
-      <c r="A293">
-        <v>14</v>
-      </c>
-      <c r="I293" t="s">
-        <v>8</v>
-      </c>
-      <c r="L293" t="s">
+      <c r="F294" t="s">
+        <v>497</v>
+      </c>
+      <c r="L294" t="s">
         <v>498</v>
       </c>
-      <c r="M293" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13">
-      <c r="A294">
-        <v>1</v>
-      </c>
-      <c r="B294" t="s">
+      <c r="M294" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>14</v>
+      </c>
+      <c r="L295" t="s">
         <v>499</v>
       </c>
-      <c r="C294" t="s">
-        <v>499</v>
-      </c>
-      <c r="D294" t="s">
-        <v>3</v>
-      </c>
-      <c r="E294" t="s">
-        <v>500</v>
-      </c>
-      <c r="F294" t="s">
-        <v>500</v>
-      </c>
-      <c r="G294" t="s">
-        <v>6</v>
-      </c>
-      <c r="I294" t="s">
-        <v>8</v>
-      </c>
-      <c r="L294" t="s">
-        <v>501</v>
-      </c>
-      <c r="M294" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13">
-      <c r="A295">
-        <v>14</v>
-      </c>
-      <c r="I295" t="s">
-        <v>8</v>
-      </c>
-      <c r="L295" t="s">
-        <v>502</v>
-      </c>
       <c r="M295" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>7</v>
       </c>
-      <c r="I296" t="s">
-        <v>8</v>
-      </c>
       <c r="K296" t="s">
-        <v>65</v>
+        <v>571</v>
       </c>
       <c r="L296" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M296" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C297" t="s">
-        <v>116</v>
-      </c>
-      <c r="D297" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E297" t="s">
         <v>58</v>
@@ -8012,57 +6739,42 @@
       <c r="F297" t="s">
         <v>58</v>
       </c>
-      <c r="G297" t="s">
-        <v>6</v>
-      </c>
-      <c r="I297" t="s">
-        <v>8</v>
-      </c>
       <c r="L297" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M297" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>98</v>
+      </c>
+      <c r="F298" t="s">
+        <v>98</v>
+      </c>
+      <c r="L298" t="s">
+        <v>503</v>
+      </c>
+      <c r="M298" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>14</v>
+      </c>
+      <c r="L299" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="298" spans="1:13">
-      <c r="A298">
-        <v>1</v>
-      </c>
-      <c r="E298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F298" t="s">
-        <v>99</v>
-      </c>
-      <c r="G298" t="s">
-        <v>6</v>
-      </c>
-      <c r="I298" t="s">
-        <v>8</v>
-      </c>
-      <c r="L298" t="s">
-        <v>506</v>
-      </c>
-      <c r="M298" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13">
-      <c r="A299">
-        <v>14</v>
-      </c>
-      <c r="I299" t="s">
-        <v>8</v>
-      </c>
-      <c r="L299" t="s">
-        <v>507</v>
-      </c>
       <c r="M299" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -8072,94 +6784,70 @@
       <c r="F300" t="s">
         <v>21</v>
       </c>
-      <c r="G300" t="s">
-        <v>6</v>
-      </c>
-      <c r="I300" t="s">
-        <v>8</v>
-      </c>
       <c r="L300" t="s">
+        <v>505</v>
+      </c>
+      <c r="M300" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>14</v>
+      </c>
+      <c r="L301" t="s">
+        <v>506</v>
+      </c>
+      <c r="M301" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>14</v>
+      </c>
+      <c r="L302" t="s">
         <v>508</v>
       </c>
-      <c r="M300" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13">
-      <c r="A301">
-        <v>14</v>
-      </c>
-      <c r="I301" t="s">
-        <v>8</v>
-      </c>
-      <c r="L301" t="s">
+      <c r="M302" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303" t="s">
+        <v>94</v>
+      </c>
+      <c r="C303" t="s">
+        <v>94</v>
+      </c>
+      <c r="E303" t="s">
         <v>509</v>
       </c>
-      <c r="M301" t="s">
+      <c r="F303" t="s">
+        <v>509</v>
+      </c>
+      <c r="L303" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="302" spans="1:13">
-      <c r="A302">
-        <v>14</v>
-      </c>
-      <c r="I302" t="s">
-        <v>8</v>
-      </c>
-      <c r="L302" t="s">
+      <c r="M303" t="s">
         <v>511</v>
       </c>
-      <c r="M302" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13">
-      <c r="A303">
-        <v>1</v>
-      </c>
-      <c r="B303" t="s">
-        <v>95</v>
-      </c>
-      <c r="C303" t="s">
-        <v>95</v>
-      </c>
-      <c r="D303" t="s">
-        <v>3</v>
-      </c>
-      <c r="E303" t="s">
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>14</v>
+      </c>
+      <c r="L304" t="s">
         <v>512</v>
       </c>
-      <c r="F303" t="s">
-        <v>512</v>
-      </c>
-      <c r="G303" t="s">
-        <v>6</v>
-      </c>
-      <c r="I303" t="s">
-        <v>8</v>
-      </c>
-      <c r="L303" t="s">
-        <v>513</v>
-      </c>
-      <c r="M303" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13">
-      <c r="A304">
-        <v>14</v>
-      </c>
-      <c r="I304" t="s">
-        <v>8</v>
-      </c>
-      <c r="L304" t="s">
-        <v>515</v>
-      </c>
       <c r="M304" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8169,29 +6857,20 @@
       <c r="C305" t="s">
         <v>42</v>
       </c>
-      <c r="D305" t="s">
-        <v>3</v>
-      </c>
       <c r="E305" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F305" t="s">
-        <v>187</v>
-      </c>
-      <c r="G305" t="s">
-        <v>6</v>
-      </c>
-      <c r="I305" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="L305" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M305" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -8201,57 +6880,42 @@
       <c r="C306" t="s">
         <v>36</v>
       </c>
-      <c r="D306" t="s">
-        <v>3</v>
-      </c>
       <c r="E306" t="s">
+        <v>514</v>
+      </c>
+      <c r="F306" t="s">
+        <v>514</v>
+      </c>
+      <c r="L306" t="s">
+        <v>515</v>
+      </c>
+      <c r="M306" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>14</v>
+      </c>
+      <c r="L307" t="s">
+        <v>516</v>
+      </c>
+      <c r="M307" t="s">
         <v>517</v>
       </c>
-      <c r="F306" t="s">
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>14</v>
+      </c>
+      <c r="L308" t="s">
+        <v>518</v>
+      </c>
+      <c r="M308" t="s">
         <v>517</v>
       </c>
-      <c r="G306" t="s">
-        <v>6</v>
-      </c>
-      <c r="I306" t="s">
-        <v>8</v>
-      </c>
-      <c r="L306" t="s">
-        <v>518</v>
-      </c>
-      <c r="M306" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13">
-      <c r="A307">
-        <v>14</v>
-      </c>
-      <c r="I307" t="s">
-        <v>8</v>
-      </c>
-      <c r="L307" t="s">
-        <v>519</v>
-      </c>
-      <c r="M307" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13">
-      <c r="A308">
-        <v>14</v>
-      </c>
-      <c r="I308" t="s">
-        <v>8</v>
-      </c>
-      <c r="L308" t="s">
-        <v>521</v>
-      </c>
-      <c r="M308" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13">
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -8261,43 +6925,31 @@
       <c r="C309" t="s">
         <v>62</v>
       </c>
-      <c r="D309" t="s">
-        <v>3</v>
-      </c>
       <c r="E309" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F309" t="s">
-        <v>208</v>
-      </c>
-      <c r="G309" t="s">
-        <v>6</v>
-      </c>
-      <c r="I309" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="L309" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M309" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14</v>
       </c>
-      <c r="I310" t="s">
-        <v>8</v>
-      </c>
       <c r="L310" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M310" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
@@ -8307,37 +6959,28 @@
       <c r="F311" t="s">
         <v>48</v>
       </c>
-      <c r="G311" t="s">
-        <v>6</v>
-      </c>
-      <c r="I311" t="s">
-        <v>8</v>
-      </c>
       <c r="L311" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M311" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
       <c r="H312" t="s">
-        <v>68</v>
-      </c>
-      <c r="I312" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="L312" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M312" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
@@ -8347,34 +6990,25 @@
       <c r="F313" t="s">
         <v>28</v>
       </c>
-      <c r="G313" t="s">
-        <v>6</v>
-      </c>
-      <c r="I313" t="s">
-        <v>8</v>
-      </c>
       <c r="L313" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M313" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>14</v>
       </c>
-      <c r="I314" t="s">
-        <v>8</v>
-      </c>
       <c r="L314" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M314" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
@@ -8384,100 +7018,73 @@
       <c r="C315" t="s">
         <v>62</v>
       </c>
-      <c r="D315" t="s">
-        <v>3</v>
-      </c>
       <c r="E315" t="s">
         <v>16</v>
       </c>
       <c r="F315" t="s">
         <v>16</v>
       </c>
-      <c r="G315" t="s">
-        <v>6</v>
-      </c>
-      <c r="I315" t="s">
-        <v>8</v>
-      </c>
       <c r="L315" t="s">
+        <v>527</v>
+      </c>
+      <c r="M315" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>14</v>
+      </c>
+      <c r="L316" t="s">
+        <v>529</v>
+      </c>
+      <c r="M316" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" t="s">
+        <v>151</v>
+      </c>
+      <c r="C317" t="s">
+        <v>151</v>
+      </c>
+      <c r="E317" t="s">
+        <v>72</v>
+      </c>
+      <c r="F317" t="s">
+        <v>72</v>
+      </c>
+      <c r="L317" t="s">
         <v>530</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M317" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
-      <c r="A316">
-        <v>14</v>
-      </c>
-      <c r="I316" t="s">
-        <v>8</v>
-      </c>
-      <c r="L316" t="s">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>14</v>
+      </c>
+      <c r="L318" t="s">
         <v>532</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M318" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
-      <c r="A317">
-        <v>1</v>
-      </c>
-      <c r="B317" t="s">
-        <v>152</v>
-      </c>
-      <c r="C317" t="s">
-        <v>152</v>
-      </c>
-      <c r="D317" t="s">
-        <v>3</v>
-      </c>
-      <c r="E317" t="s">
-        <v>73</v>
-      </c>
-      <c r="F317" t="s">
-        <v>73</v>
-      </c>
-      <c r="G317" t="s">
-        <v>6</v>
-      </c>
-      <c r="I317" t="s">
-        <v>8</v>
-      </c>
-      <c r="L317" t="s">
-        <v>533</v>
-      </c>
-      <c r="M317" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13">
-      <c r="A318">
-        <v>14</v>
-      </c>
-      <c r="I318" t="s">
-        <v>8</v>
-      </c>
-      <c r="L318" t="s">
-        <v>535</v>
-      </c>
-      <c r="M318" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
       <c r="B319" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C319" t="s">
-        <v>208</v>
-      </c>
-      <c r="D319" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="E319" t="s">
         <v>41</v>
@@ -8485,34 +7092,25 @@
       <c r="F319" t="s">
         <v>41</v>
       </c>
-      <c r="G319" t="s">
-        <v>6</v>
-      </c>
-      <c r="I319" t="s">
-        <v>8</v>
-      </c>
       <c r="L319" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M319" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>14</v>
+      </c>
+      <c r="L320" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="320" spans="1:13">
-      <c r="A320">
-        <v>14</v>
-      </c>
-      <c r="I320" t="s">
-        <v>8</v>
-      </c>
-      <c r="L320" t="s">
-        <v>537</v>
-      </c>
       <c r="M320" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
@@ -8522,128 +7120,95 @@
       <c r="C321" t="s">
         <v>15</v>
       </c>
-      <c r="D321" t="s">
-        <v>3</v>
-      </c>
       <c r="E321" t="s">
         <v>27</v>
       </c>
       <c r="F321" t="s">
         <v>27</v>
       </c>
-      <c r="G321" t="s">
-        <v>6</v>
-      </c>
-      <c r="I321" t="s">
-        <v>8</v>
-      </c>
       <c r="L321" t="s">
+        <v>536</v>
+      </c>
+      <c r="M321" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>14</v>
+      </c>
+      <c r="L322" t="s">
+        <v>537</v>
+      </c>
+      <c r="M322" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>497</v>
+      </c>
+      <c r="F323" t="s">
+        <v>497</v>
+      </c>
+      <c r="L323" t="s">
+        <v>538</v>
+      </c>
+      <c r="M323" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>14</v>
+      </c>
+      <c r="L324" t="s">
         <v>539</v>
       </c>
-      <c r="M321" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13">
-      <c r="A322">
-        <v>14</v>
-      </c>
-      <c r="I322" t="s">
-        <v>8</v>
-      </c>
-      <c r="L322" t="s">
+      <c r="M324" t="s">
         <v>540</v>
       </c>
-      <c r="M322" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13">
-      <c r="A323">
-        <v>1</v>
-      </c>
-      <c r="E323" t="s">
-        <v>500</v>
-      </c>
-      <c r="F323" t="s">
-        <v>500</v>
-      </c>
-      <c r="G323" t="s">
-        <v>6</v>
-      </c>
-      <c r="I323" t="s">
-        <v>8</v>
-      </c>
-      <c r="L323" t="s">
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
         <v>541</v>
       </c>
-      <c r="M323" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13">
-      <c r="A324">
-        <v>14</v>
-      </c>
-      <c r="I324" t="s">
-        <v>8</v>
-      </c>
-      <c r="L324" t="s">
+      <c r="F325" t="s">
+        <v>541</v>
+      </c>
+      <c r="L325" t="s">
         <v>542</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M325" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
-      <c r="A325">
-        <v>1</v>
-      </c>
-      <c r="E325" t="s">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>14</v>
+      </c>
+      <c r="L326" t="s">
         <v>544</v>
       </c>
-      <c r="F325" t="s">
-        <v>544</v>
-      </c>
-      <c r="G325" t="s">
-        <v>6</v>
-      </c>
-      <c r="I325" t="s">
-        <v>8</v>
-      </c>
-      <c r="L325" t="s">
-        <v>545</v>
-      </c>
-      <c r="M325" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13">
-      <c r="A326">
-        <v>14</v>
-      </c>
-      <c r="I326" t="s">
-        <v>8</v>
-      </c>
-      <c r="L326" t="s">
-        <v>547</v>
-      </c>
       <c r="M326" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C327" t="s">
-        <v>143</v>
-      </c>
-      <c r="D327" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="E327" t="s">
         <v>42</v>
@@ -8651,172 +7216,127 @@
       <c r="F327" t="s">
         <v>42</v>
       </c>
-      <c r="G327" t="s">
-        <v>6</v>
-      </c>
-      <c r="I327" t="s">
-        <v>8</v>
-      </c>
       <c r="L327" t="s">
+        <v>545</v>
+      </c>
+      <c r="M327" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>14</v>
+      </c>
+      <c r="L328" t="s">
+        <v>546</v>
+      </c>
+      <c r="M328" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329" t="s">
+        <v>72</v>
+      </c>
+      <c r="C329" t="s">
+        <v>72</v>
+      </c>
+      <c r="E329" t="s">
+        <v>98</v>
+      </c>
+      <c r="F329" t="s">
+        <v>98</v>
+      </c>
+      <c r="L329" t="s">
+        <v>547</v>
+      </c>
+      <c r="M329" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>14</v>
+      </c>
+      <c r="L330" t="s">
         <v>548</v>
       </c>
-      <c r="M327" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13">
-      <c r="A328">
-        <v>14</v>
-      </c>
-      <c r="I328" t="s">
-        <v>8</v>
-      </c>
-      <c r="L328" t="s">
+      <c r="M330" t="s">
         <v>549</v>
       </c>
-      <c r="M328" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13">
-      <c r="A329">
-        <v>1</v>
-      </c>
-      <c r="B329" t="s">
-        <v>73</v>
-      </c>
-      <c r="C329" t="s">
-        <v>73</v>
-      </c>
-      <c r="D329" t="s">
-        <v>3</v>
-      </c>
-      <c r="E329" t="s">
-        <v>99</v>
-      </c>
-      <c r="F329" t="s">
-        <v>99</v>
-      </c>
-      <c r="G329" t="s">
-        <v>6</v>
-      </c>
-      <c r="I329" t="s">
-        <v>8</v>
-      </c>
-      <c r="L329" t="s">
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
+        <v>114</v>
+      </c>
+      <c r="C331" t="s">
+        <v>114</v>
+      </c>
+      <c r="E331" t="s">
+        <v>463</v>
+      </c>
+      <c r="F331" t="s">
+        <v>463</v>
+      </c>
+      <c r="L331" t="s">
         <v>550</v>
-      </c>
-      <c r="M329" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13">
-      <c r="A330">
-        <v>14</v>
-      </c>
-      <c r="I330" t="s">
-        <v>8</v>
-      </c>
-      <c r="L330" t="s">
-        <v>551</v>
-      </c>
-      <c r="M330" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331" t="s">
-        <v>115</v>
-      </c>
-      <c r="C331" t="s">
-        <v>115</v>
-      </c>
-      <c r="D331" t="s">
-        <v>3</v>
-      </c>
-      <c r="E331" t="s">
-        <v>466</v>
-      </c>
-      <c r="F331" t="s">
-        <v>466</v>
-      </c>
-      <c r="G331" t="s">
-        <v>6</v>
-      </c>
-      <c r="I331" t="s">
-        <v>8</v>
-      </c>
-      <c r="L331" t="s">
-        <v>553</v>
       </c>
       <c r="M331" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>14</v>
       </c>
-      <c r="I332" t="s">
-        <v>8</v>
-      </c>
       <c r="L332" t="s">
+        <v>551</v>
+      </c>
+      <c r="M332" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>14</v>
+      </c>
+      <c r="L333" t="s">
+        <v>553</v>
+      </c>
+      <c r="M333" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334" t="s">
+        <v>177</v>
+      </c>
+      <c r="C334" t="s">
+        <v>177</v>
+      </c>
+      <c r="E334" t="s">
+        <v>177</v>
+      </c>
+      <c r="F334" t="s">
+        <v>177</v>
+      </c>
+      <c r="L334" t="s">
         <v>554</v>
-      </c>
-      <c r="M332" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13">
-      <c r="A333">
-        <v>14</v>
-      </c>
-      <c r="I333" t="s">
-        <v>8</v>
-      </c>
-      <c r="L333" t="s">
-        <v>556</v>
-      </c>
-      <c r="M333" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13">
-      <c r="A334">
-        <v>1</v>
-      </c>
-      <c r="B334" t="s">
-        <v>179</v>
-      </c>
-      <c r="C334" t="s">
-        <v>179</v>
-      </c>
-      <c r="D334" t="s">
-        <v>3</v>
-      </c>
-      <c r="E334" t="s">
-        <v>179</v>
-      </c>
-      <c r="F334" t="s">
-        <v>179</v>
-      </c>
-      <c r="G334" t="s">
-        <v>6</v>
-      </c>
-      <c r="I334" t="s">
-        <v>8</v>
-      </c>
-      <c r="L334" t="s">
-        <v>557</v>
       </c>
       <c r="M334" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -8826,114 +7346,87 @@
       <c r="C335" t="s">
         <v>36</v>
       </c>
-      <c r="D335" t="s">
-        <v>3</v>
-      </c>
       <c r="E335" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F335" t="s">
-        <v>143</v>
-      </c>
-      <c r="G335" t="s">
-        <v>6</v>
-      </c>
-      <c r="I335" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="L335" t="s">
+        <v>555</v>
+      </c>
+      <c r="M335" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>14</v>
+      </c>
+      <c r="L336" t="s">
+        <v>557</v>
+      </c>
+      <c r="M336" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>115</v>
+      </c>
+      <c r="C337" t="s">
+        <v>115</v>
+      </c>
+      <c r="E337" t="s">
+        <v>276</v>
+      </c>
+      <c r="F337" t="s">
+        <v>276</v>
+      </c>
+      <c r="L337" t="s">
         <v>558</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M337" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>14</v>
+      </c>
+      <c r="L338" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="336" spans="1:13">
-      <c r="A336">
-        <v>14</v>
-      </c>
-      <c r="I336" t="s">
-        <v>8</v>
-      </c>
-      <c r="L336" t="s">
+      <c r="M338" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>14</v>
+      </c>
+      <c r="L339" t="s">
         <v>560</v>
       </c>
-      <c r="M336" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13">
-      <c r="A337">
-        <v>1</v>
-      </c>
-      <c r="B337" t="s">
-        <v>116</v>
-      </c>
-      <c r="C337" t="s">
-        <v>116</v>
-      </c>
-      <c r="D337" t="s">
-        <v>3</v>
-      </c>
-      <c r="E337" t="s">
-        <v>278</v>
-      </c>
-      <c r="F337" t="s">
-        <v>278</v>
-      </c>
-      <c r="G337" t="s">
-        <v>6</v>
-      </c>
-      <c r="I337" t="s">
-        <v>8</v>
-      </c>
-      <c r="L337" t="s">
+      <c r="M339" t="s">
         <v>561</v>
       </c>
-      <c r="M337" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13">
-      <c r="A338">
-        <v>14</v>
-      </c>
-      <c r="I338" t="s">
-        <v>8</v>
-      </c>
-      <c r="L338" t="s">
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>14</v>
+      </c>
+      <c r="L340" t="s">
         <v>562</v>
       </c>
-      <c r="M338" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13">
-      <c r="A339">
-        <v>14</v>
-      </c>
-      <c r="L339" t="s">
-        <v>563</v>
-      </c>
-      <c r="M339" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13">
-      <c r="A340">
-        <v>14</v>
-      </c>
-      <c r="I340" t="s">
-        <v>8</v>
-      </c>
-      <c r="L340" t="s">
-        <v>565</v>
-      </c>
       <c r="M340" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -8943,43 +7436,31 @@
       <c r="C341" t="s">
         <v>52</v>
       </c>
-      <c r="D341" t="s">
-        <v>3</v>
-      </c>
       <c r="E341" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F341" t="s">
-        <v>242</v>
-      </c>
-      <c r="G341" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="H341" t="s">
-        <v>160</v>
-      </c>
-      <c r="I341" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="L341" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M341" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>14</v>
       </c>
-      <c r="I342" t="s">
-        <v>8</v>
-      </c>
       <c r="L342" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M342" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
